--- a/100runs/run034/NotionalETEOutput034.xlsx
+++ b/100runs/run034/NotionalETEOutput034.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,31 +49,34 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_BRAVER_468.MISSILE_BRAVER_468</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_388.MISSILE_HELLMASKER_388</t>
+    <t>MISSILE_HIGHWIND_238.MISSILE_HIGHWIND_238</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_390.MISSILE_SOMERSAULT_390</t>
+    <t>MISSILE_SOMERSAULT_103.MISSILE_SOMERSAULT_103</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_307.MISSILE_BRAVER_307</t>
+    <t>MISSILE_HIGHWIND_338.MISSILE_HIGHWIND_338</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,28 +486,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G2">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H2">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I2">
-        <v>-2269.510210100399</v>
+        <v>1114861.64904713</v>
       </c>
       <c r="J2">
-        <v>2178.81004934154</v>
+        <v>4843219.378958052</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.940808825</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,28 +521,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G3">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H3">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I3">
-        <v>-2224.70403544349</v>
+        <v>1114891.263051341</v>
       </c>
       <c r="J3">
-        <v>2125.808764659798</v>
+        <v>4843170.727408949</v>
       </c>
       <c r="K3">
-        <v>234.0803520932091</v>
+        <v>3984673.736771799</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,28 +556,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G4">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H4">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I4">
-        <v>-2178.79454995658</v>
+        <v>1114921.60627316</v>
       </c>
       <c r="J4">
-        <v>2072.807479978055</v>
+        <v>4843122.075859847</v>
       </c>
       <c r="K4">
-        <v>456.4883848452369</v>
+        <v>3984962.384075509</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,28 +591,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G5">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H5">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I5">
-        <v>-2131.754585625506</v>
+        <v>1114952.696668902</v>
       </c>
       <c r="J5">
-        <v>2019.806195296312</v>
+        <v>4843073.424310745</v>
       </c>
       <c r="K5">
-        <v>667.2240982560849</v>
+        <v>3985235.882719955</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,28 +626,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G6">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H6">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I6">
-        <v>-2083.556305448755</v>
+        <v>1114984.552637035</v>
       </c>
       <c r="J6">
-        <v>1966.80491061457</v>
+        <v>4843024.772761642</v>
       </c>
       <c r="K6">
-        <v>866.2874923257518</v>
+        <v>3985494.232705136</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,28 +661,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G7">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H7">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I7">
-        <v>-2034.171186964254</v>
+        <v>1115017.193029078</v>
       </c>
       <c r="J7">
-        <v>1913.803625932827</v>
+        <v>4842976.12121254</v>
       </c>
       <c r="K7">
-        <v>1053.678567054239</v>
+        <v>3985737.434031053</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,28 +696,28 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G8">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H8">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I8">
-        <v>-1983.570005370549</v>
+        <v>1115050.637160746</v>
       </c>
       <c r="J8">
-        <v>1860.802341251084</v>
+        <v>4842927.469663437</v>
       </c>
       <c r="K8">
-        <v>1229.397322441546</v>
+        <v>3985965.486697704</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,28 +731,28 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G9">
-        <v>-92.49563618899238</v>
+        <v>4841130.630204263</v>
       </c>
       <c r="H9">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I9">
-        <v>-1931.722816232333</v>
+        <v>1115084.904823388</v>
       </c>
       <c r="J9">
-        <v>1807.801056569341</v>
+        <v>4842878.818114335</v>
       </c>
       <c r="K9">
-        <v>1393.443758487672</v>
+        <v>3986178.390705091</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,28 +766,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>93.33664922086844</v>
+        <v>1116579.167411895</v>
       </c>
       <c r="G10">
-        <v>-77.22200307331924</v>
+        <v>4841147.143044167</v>
       </c>
       <c r="H10">
-        <v>643.1436237571493</v>
+        <v>3985224.792558782</v>
       </c>
       <c r="I10">
-        <v>-1878.598937760127</v>
+        <v>1115120.016295697</v>
       </c>
       <c r="J10">
-        <v>1754.799771887599</v>
+        <v>4842830.166565233</v>
       </c>
       <c r="K10">
-        <v>1545.817875192618</v>
+        <v>3986376.146053213</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,28 +801,28 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>72.44012811835469</v>
+        <v>1116530.486819195</v>
       </c>
       <c r="G11">
-        <v>-61.94836995764611</v>
+        <v>4841163.655884071</v>
       </c>
       <c r="H11">
-        <v>792.348616719466</v>
+        <v>3985424.046788773</v>
       </c>
       <c r="I11">
-        <v>-1824.166932653616</v>
+        <v>1115155.992355709</v>
       </c>
       <c r="J11">
-        <v>1701.798487205856</v>
+        <v>4842781.515016131</v>
       </c>
       <c r="K11">
-        <v>1686.519672556382</v>
+        <v>3986558.752742071</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,28 +836,28 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>60.16447025328658</v>
+        <v>1116501.889413066</v>
       </c>
       <c r="G12">
-        <v>-46.67473684197299</v>
+        <v>4841180.168723976</v>
       </c>
       <c r="H12">
-        <v>881.2227411608526</v>
+        <v>3985542.732798404</v>
       </c>
       <c r="I12">
-        <v>-1768.394589497883</v>
+        <v>1115192.854293102</v>
       </c>
       <c r="J12">
-        <v>1648.797202524113</v>
+        <v>4842732.863467027</v>
       </c>
       <c r="K12">
-        <v>1815.549150578967</v>
+        <v>3986726.210771665</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,28 +871,28 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>52.41517442102916</v>
+        <v>1116483.836632306</v>
       </c>
       <c r="G13">
-        <v>-31.40110372629985</v>
+        <v>4841196.681563881</v>
       </c>
       <c r="H13">
-        <v>944.7350711266751</v>
+        <v>3985627.549667806</v>
       </c>
       <c r="I13">
-        <v>-1711.248903701554</v>
+        <v>1115230.623921791</v>
       </c>
       <c r="J13">
-        <v>1595.79591784237</v>
+        <v>4842684.211917926</v>
       </c>
       <c r="K13">
-        <v>1932.906309260372</v>
+        <v>3986878.520141993</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,28 +906,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>47.01084696385134</v>
+        <v>1116471.246696284</v>
       </c>
       <c r="G14">
-        <v>-16.12747061062671</v>
+        <v>4841213.194403784</v>
       </c>
       <c r="H14">
-        <v>994.1920884443055</v>
+        <v>3985693.596518569</v>
       </c>
       <c r="I14">
-        <v>-1652.696057965558</v>
+        <v>1115269.323592839</v>
       </c>
       <c r="J14">
-        <v>1542.794633160628</v>
+        <v>4842635.560368824</v>
       </c>
       <c r="K14">
-        <v>2038.591148600596</v>
+        <v>3987015.680853057</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,28 +941,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>42.97905683965495</v>
+        <v>1116461.854226986</v>
       </c>
       <c r="G15">
-        <v>-0.8538374949535913</v>
+        <v>4841229.707243689</v>
       </c>
       <c r="H15">
-        <v>1034.701221863387</v>
+        <v>3985747.694012405</v>
       </c>
       <c r="I15">
-        <v>-1592.701402270944</v>
+        <v>1115308.976207684</v>
       </c>
       <c r="J15">
-        <v>1489.793348478885</v>
+        <v>4842586.908819722</v>
       </c>
       <c r="K15">
-        <v>2132.603668599639</v>
+        <v>3987137.692904856</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,28 +976,28 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>39.82675998533239</v>
+        <v>1116454.510627615</v>
       </c>
       <c r="G16">
-        <v>14.41979562071954</v>
+        <v>4841246.220083593</v>
       </c>
       <c r="H16">
-        <v>1069.00950084593</v>
+        <v>3985793.510640758</v>
       </c>
       <c r="I16">
-        <v>-1531.229433373921</v>
+        <v>1115349.605231689</v>
       </c>
       <c r="J16">
-        <v>1436.792063797142</v>
+        <v>4842538.257270618</v>
       </c>
       <c r="K16">
-        <v>2214.943869257502</v>
+        <v>3987244.556297391</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,28 +1011,28 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>37.2763223039253</v>
+        <v>1116448.569121018</v>
       </c>
       <c r="G17">
-        <v>29.69342873639268</v>
+        <v>4841262.732923497</v>
       </c>
       <c r="H17">
-        <v>1098.765684394477</v>
+        <v>3985833.248221403</v>
       </c>
       <c r="I17">
-        <v>-1468.243773795982</v>
+        <v>1115391.234708033</v>
       </c>
       <c r="J17">
-        <v>1383.7907791154</v>
+        <v>4842489.605721517</v>
       </c>
       <c r="K17">
-        <v>2285.611750574184</v>
+        <v>3987336.271030661</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,28 +1046,28 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>35.15855025650111</v>
+        <v>1116443.635553465</v>
       </c>
       <c r="G18">
-        <v>44.9670618520658</v>
+        <v>4841279.245763402</v>
       </c>
       <c r="H18">
-        <v>1125.037449983429</v>
+        <v>3985868.332572931</v>
       </c>
       <c r="I18">
-        <v>-1403.707150296682</v>
+        <v>1115433.889271932</v>
       </c>
       <c r="J18">
-        <v>1330.789494433657</v>
+        <v>4842440.954172415</v>
       </c>
       <c r="K18">
-        <v>2344.607312549687</v>
+        <v>3987412.837104666</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,28 +1081,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>33.36389778885725</v>
+        <v>1116439.45472617</v>
       </c>
       <c r="G19">
-        <v>60.24069496773895</v>
+        <v>4841295.758603306</v>
       </c>
       <c r="H19">
-        <v>1148.555966823475</v>
+        <v>3985899.740127535</v>
       </c>
       <c r="I19">
-        <v>-1337.581371816316</v>
+        <v>1115477.594165227</v>
       </c>
       <c r="J19">
-        <v>1277.788209751914</v>
+        <v>4842392.302623312</v>
       </c>
       <c r="K19">
-        <v>2391.930555184008</v>
+        <v>3987474.254519407</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,28 +1116,28 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>31.81797977493419</v>
+        <v>1116435.853351337</v>
       </c>
       <c r="G20">
-        <v>75.51432808341208</v>
+        <v>4841312.271443211</v>
       </c>
       <c r="H20">
-        <v>1169.843959833792</v>
+        <v>3985928.168952676</v>
       </c>
       <c r="I20">
-        <v>-1269.827306875472</v>
+        <v>1115522.375251311</v>
       </c>
       <c r="J20">
-        <v>1224.786925070171</v>
+        <v>4842343.651074209</v>
       </c>
       <c r="K20">
-        <v>2427.58147847715</v>
+        <v>3987520.523274883</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,28 +1151,28 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>30.46831346851435</v>
+        <v>1116432.709165019</v>
       </c>
       <c r="G21">
-        <v>90.7879611990852</v>
+        <v>4841328.784283116</v>
       </c>
       <c r="H21">
-        <v>1189.288110739924</v>
+        <v>3985954.13543838</v>
       </c>
       <c r="I21">
-        <v>-1200.404860418056</v>
+        <v>1115568.259030442</v>
       </c>
       <c r="J21">
-        <v>1171.785640388429</v>
+        <v>4842294.999525107</v>
       </c>
       <c r="K21">
-        <v>2451.56008242911</v>
+        <v>3987551.643371095</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,28 +1186,28 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>29.27668568312823</v>
+        <v>1116429.933145672</v>
       </c>
       <c r="G22">
-        <v>106.0615943147584</v>
+        <v>4841345.29712302</v>
       </c>
       <c r="H22">
-        <v>1207.182520802799</v>
+        <v>3985978.032339063</v>
       </c>
       <c r="I22">
-        <v>-1129.272950084106</v>
+        <v>1115615.272655422</v>
       </c>
       <c r="J22">
-        <v>1118.784355706686</v>
+        <v>4842246.347976005</v>
       </c>
       <c r="K22">
-        <v>2463.866367039891</v>
+        <v>3987567.614808042</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,28 +1221,28 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>28.21453192240882</v>
+        <v>1116427.458749367</v>
       </c>
       <c r="G23">
-        <v>121.3352274304315</v>
+        <v>4841361.809962924</v>
       </c>
       <c r="H23">
-        <v>1223.756093350091</v>
+        <v>3986000.165341254</v>
       </c>
       <c r="I23">
-        <v>-1056.38948189834</v>
+        <v>1115663.443947666</v>
       </c>
       <c r="J23">
-        <v>1065.783071024943</v>
+        <v>4842197.696426903</v>
       </c>
       <c r="K23">
-        <v>2464.500332309491</v>
+        <v>3987568.437585724</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,28 +1256,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>27.26001902352188</v>
+        <v>1116425.235113508</v>
       </c>
       <c r="G24">
-        <v>136.6088605461046</v>
+        <v>4841378.322802829</v>
       </c>
       <c r="H24">
-        <v>1239.190485985567</v>
+        <v>3986020.777037678</v>
       </c>
       <c r="I24">
-        <v>-981.7113253600606</v>
+        <v>1115712.801413664</v>
       </c>
       <c r="J24">
-        <v>1012.781786343201</v>
+        <v>4842149.0448778</v>
       </c>
       <c r="K24">
-        <v>2453.46197823791</v>
+        <v>3987554.111704141</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,28 +1291,28 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>26.39613670922913</v>
+        <v>1116423.222610906</v>
       </c>
       <c r="G25">
-        <v>151.8824936617777</v>
+        <v>4841394.835642733</v>
       </c>
       <c r="H25">
-        <v>1253.632279852647</v>
+        <v>3986040.063178575</v>
       </c>
       <c r="I25">
-        <v>-905.19428791967</v>
+        <v>1115763.374261854</v>
       </c>
       <c r="J25">
-        <v>959.7805016614579</v>
+        <v>4842100.393328697</v>
       </c>
       <c r="K25">
-        <v>2430.751304825149</v>
+        <v>3987524.637163294</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,28 +1326,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>25.60941055667057</v>
+        <v>1116421.38985151</v>
       </c>
       <c r="G26">
-        <v>167.1561267774509</v>
+        <v>4841411.348482638</v>
       </c>
       <c r="H26">
-        <v>1267.20146671538</v>
+        <v>3986058.184005674</v>
       </c>
       <c r="I26">
-        <v>-826.7930888266937</v>
+        <v>1115815.192419905</v>
       </c>
       <c r="J26">
-        <v>906.7792169797151</v>
+        <v>4842051.741779596</v>
       </c>
       <c r="K26">
-        <v>2396.368312071208</v>
+        <v>3987480.013963183</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,28 +1361,28 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>24.88901085203082</v>
+        <v>1116419.711606388</v>
       </c>
       <c r="G27">
-        <v>182.429759893124</v>
+        <v>4841427.861322541</v>
       </c>
       <c r="H27">
-        <v>1279.997514891225</v>
+        <v>3986075.272352891</v>
       </c>
       <c r="I27">
-        <v>-746.4613323338338</v>
+        <v>1115868.286552425</v>
       </c>
       <c r="J27">
-        <v>853.7779322979724</v>
+        <v>4842003.090230493</v>
       </c>
       <c r="K27">
-        <v>2350.312999976086</v>
+        <v>3987420.242103807</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,28 +1396,28 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>24.22612116439329</v>
+        <v>1116418.167336759</v>
       </c>
       <c r="G28">
-        <v>197.7033930087971</v>
+        <v>4841444.374162446</v>
       </c>
       <c r="H28">
-        <v>1292.103798318264</v>
+        <v>3986091.439561069</v>
       </c>
       <c r="I28">
-        <v>-664.1514802411982</v>
+        <v>1115922.688079114</v>
       </c>
       <c r="J28">
-        <v>800.7766476162298</v>
+        <v>4841954.438681391</v>
       </c>
       <c r="K28">
-        <v>2292.585368539784</v>
+        <v>3987345.321585166</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,28 +1431,28 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>23.61348175327307</v>
+        <v>1116416.740130312</v>
       </c>
       <c r="G29">
-        <v>212.9770261244703</v>
+        <v>4841460.887002351</v>
       </c>
       <c r="H29">
-        <v>1303.590891766029</v>
+        <v>3986106.779878536</v>
       </c>
       <c r="I29">
-        <v>-579.814823764456</v>
+        <v>1115978.429193349</v>
       </c>
       <c r="J29">
-        <v>747.7753629344869</v>
+        <v>4841905.787132288</v>
       </c>
       <c r="K29">
-        <v>2223.185417762301</v>
+        <v>3987255.252407261</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,28 +1466,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>23.04505338065145</v>
+        <v>1116415.415918021</v>
       </c>
       <c r="G30">
-        <v>228.2506592401434</v>
+        <v>4841477.399842254</v>
       </c>
       <c r="H30">
-        <v>1314.51906361452</v>
+        <v>3986121.373790064</v>
       </c>
       <c r="I30">
-        <v>-493.4014547102756</v>
+        <v>1116035.542881241</v>
       </c>
       <c r="J30">
-        <v>694.7740782527442</v>
+        <v>4841857.135583187</v>
       </c>
       <c r="K30">
-        <v>2142.113147643638</v>
+        <v>3987150.034570091</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,28 +1501,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>22.51576574387652</v>
+        <v>1116414.182888095</v>
       </c>
       <c r="G31">
-        <v>243.5242923558165</v>
+        <v>4841493.912682159</v>
       </c>
       <c r="H31">
-        <v>1324.940189836214</v>
+        <v>3986135.290572872</v>
       </c>
       <c r="I31">
-        <v>-404.860235941978</v>
+        <v>1116094.062941153</v>
       </c>
       <c r="J31">
-        <v>641.7727935710016</v>
+        <v>4841808.484034084</v>
       </c>
       <c r="K31">
-        <v>2049.368558183795</v>
+        <v>3987029.668073656</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,28 +1536,28 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>22.02132647295433</v>
+        <v>1116413.031041017</v>
       </c>
       <c r="G32">
-        <v>258.7979254714897</v>
+        <v>4841510.425522064</v>
       </c>
       <c r="H32">
-        <v>1334.899243318263</v>
+        <v>3986148.590285527</v>
       </c>
       <c r="I32">
-        <v>-314.1387711179389</v>
+        <v>1116154.024003704</v>
       </c>
       <c r="J32">
-        <v>588.7715088892587</v>
+        <v>4841759.832484981</v>
       </c>
       <c r="K32">
-        <v>1944.95164938277</v>
+        <v>3986894.152917957</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,28 +1571,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>21.55807419195165</v>
+        <v>1116411.951847237</v>
       </c>
       <c r="G33">
-        <v>274.0715585871628</v>
+        <v>4841526.938361967</v>
       </c>
       <c r="H33">
-        <v>1344.435466801436</v>
+        <v>3986161.325334331</v>
       </c>
       <c r="I33">
-        <v>-221.1833736848244</v>
+        <v>1116215.461552256</v>
       </c>
       <c r="J33">
-        <v>535.7702242075162</v>
+        <v>4841711.180935879</v>
       </c>
       <c r="K33">
-        <v>1828.862421240566</v>
+        <v>3986743.489102993</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,28 +1606,28 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>21.12286412001632</v>
+        <v>1116410.937980663</v>
       </c>
       <c r="G34">
-        <v>289.3451917028359</v>
+        <v>4841543.451201872</v>
       </c>
       <c r="H34">
-        <v>1353.583306812267</v>
+        <v>3986173.541720534</v>
       </c>
       <c r="I34">
-        <v>-125.9390351073169</v>
+        <v>1116278.411943921</v>
       </c>
       <c r="J34">
-        <v>482.7689395257734</v>
+        <v>4841662.529386777</v>
       </c>
       <c r="K34">
-        <v>1701.100873757181</v>
+        <v>3986577.676628764</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,28 +1641,28 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>20.71297802926906</v>
+        <v>1116409.983108905</v>
       </c>
       <c r="G35">
-        <v>304.6188248185091</v>
+        <v>4841559.964041776</v>
       </c>
       <c r="H35">
-        <v>1362.373164749255</v>
+        <v>3986185.280043362</v>
       </c>
       <c r="I35">
-        <v>-28.3493923155235</v>
+        <v>1116342.912431066</v>
       </c>
       <c r="J35">
-        <v>429.7676548440305</v>
+        <v>4841613.877837674</v>
       </c>
       <c r="K35">
-        <v>1561.667006932616</v>
+        <v>3986396.715495271</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,28 +1676,28 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>20.32605266169739</v>
+        <v>1116409.081726511</v>
       </c>
       <c r="G36">
-        <v>319.8924579341822</v>
+        <v>4841576.47688168</v>
       </c>
       <c r="H36">
-        <v>1370.832006466597</v>
+        <v>3986196.57631408</v>
       </c>
       <c r="I36">
-        <v>71.64330564919297</v>
+        <v>1116409.001183368</v>
       </c>
       <c r="J36">
-        <v>376.766370162288</v>
+        <v>4841565.226288572</v>
       </c>
       <c r="K36">
-        <v>1410.56082076687</v>
+        <v>3986200.605702513</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,28 +1711,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>19.9600222952242</v>
+        <v>1116408.229021168</v>
       </c>
       <c r="G37">
-        <v>335.1660910498553</v>
+        <v>4841592.989721585</v>
       </c>
       <c r="H37">
-        <v>1378.983861187599</v>
+        <v>3986207.46262226</v>
       </c>
       <c r="I37">
-        <v>174.0982318096951</v>
+        <v>1116476.717310396</v>
       </c>
       <c r="J37">
-        <v>323.7650854805452</v>
+        <v>4841516.57473947</v>
       </c>
       <c r="K37">
-        <v>1247.782315259944</v>
+        <v>3985989.347250491</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,28 +1746,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>19.61307226952491</v>
+        <v>1116407.42076544</v>
       </c>
       <c r="G38">
-        <v>350.4397241655284</v>
+        <v>4841609.502561489</v>
       </c>
       <c r="H38">
-        <v>1386.850233016081</v>
+        <v>3986217.967685331</v>
       </c>
       <c r="I38">
-        <v>279.0760162700968</v>
+        <v>1116546.100884753</v>
       </c>
       <c r="J38">
-        <v>270.7638007988025</v>
+        <v>4841467.923190367</v>
       </c>
       <c r="K38">
-        <v>1073.331490411838</v>
+        <v>3985762.940139204</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,28 +1781,28 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>19.28360108364154</v>
+        <v>1116406.653228464</v>
       </c>
       <c r="G39">
-        <v>365.7133572812016</v>
+        <v>4841626.015401394</v>
       </c>
       <c r="H39">
-        <v>1394.450442799281</v>
+        <v>3986228.117305113</v>
       </c>
       <c r="I39">
-        <v>386.638782095044</v>
+        <v>1116617.192965797</v>
       </c>
       <c r="J39">
-        <v>217.7625161170598</v>
+        <v>4841419.271641265</v>
       </c>
       <c r="K39">
-        <v>887.2083462225502</v>
+        <v>3985521.384368652</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,28 +1816,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>18.97018925812859</v>
+        <v>1116405.923103418</v>
       </c>
       <c r="G40">
-        <v>380.9869903968747</v>
+        <v>4841642.528241298</v>
       </c>
       <c r="H40">
-        <v>1401.801914025978</v>
+        <v>3986237.93474962</v>
       </c>
       <c r="I40">
-        <v>496.8501820725014</v>
+        <v>1116690.035623934</v>
       </c>
       <c r="J40">
-        <v>164.7612314353169</v>
+        <v>4841370.620092163</v>
       </c>
       <c r="K40">
-        <v>689.4128826920826</v>
+        <v>3985264.679938836</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,28 +1851,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>18.67157358018848</v>
+        <v>1116405.227447519</v>
       </c>
       <c r="G41">
-        <v>396.2606235125479</v>
+        <v>4841659.041081202</v>
       </c>
       <c r="H41">
-        <v>1408.920413406262</v>
+        <v>3986247.441074338</v>
       </c>
       <c r="I41">
-        <v>609.7754363817731</v>
+        <v>1116764.671965513</v>
       </c>
       <c r="J41">
-        <v>111.7599467535744</v>
+        <v>4841321.96854306</v>
       </c>
       <c r="K41">
-        <v>479.945099820435</v>
+        <v>3984992.826849755</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,28 +1886,28 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>18.38662566581629</v>
+        <v>1116404.563632078</v>
       </c>
       <c r="G42">
-        <v>411.534256628221</v>
+        <v>4841675.553921107</v>
       </c>
       <c r="H42">
-        <v>1415.820254488929</v>
+        <v>3986256.655394145</v>
       </c>
       <c r="I42">
-        <v>725.4813711890843</v>
+        <v>1116841.146158339</v>
       </c>
       <c r="J42">
-        <v>58.75866207183155</v>
+        <v>4841273.316993958</v>
       </c>
       <c r="K42">
-        <v>258.8049976076063</v>
+        <v>3984705.82510141</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,28 +1921,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>18.11433400927865</v>
+        <v>1116403.92930069</v>
       </c>
       <c r="G43">
-        <v>426.8078897438942</v>
+        <v>4841692.066761011</v>
       </c>
       <c r="H43">
-        <v>1422.514470928462</v>
+        <v>3986265.595114698</v>
       </c>
       <c r="I43">
-        <v>844.0364581935162</v>
+        <v>1116919.503457809</v>
       </c>
       <c r="J43">
-        <v>5.757377390088734</v>
+        <v>4841224.665444856</v>
       </c>
       <c r="K43">
-        <v>25.99257605359733</v>
+        <v>3984403.6746938</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,28 +1956,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>17.85378886890986</v>
+        <v>1116403.322334019</v>
       </c>
       <c r="G44">
-        <v>442.0815228595673</v>
+        <v>4841708.579600915</v>
       </c>
       <c r="H44">
-        <v>1429.014964673516</v>
+        <v>3986274.276130326</v>
       </c>
       <c r="I44">
-        <v>965.5108551467512</v>
+        <v>1116999.790233691</v>
       </c>
       <c r="J44">
-        <v>-47.24390729165383</v>
+        <v>4841176.013895754</v>
       </c>
       <c r="K44">
-        <v>-218.4921648415914</v>
+        <v>3984086.375626924</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,28 +1991,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>17.60416947449104</v>
+        <v>1116402.740819995</v>
       </c>
       <c r="G45">
-        <v>457.3551559752403</v>
+        <v>4841725.09244082</v>
       </c>
       <c r="H45">
-        <v>1435.332633310441</v>
+        <v>3986282.712994096</v>
       </c>
       <c r="I45">
-        <v>1089.976447370564</v>
+        <v>1117082.053997566</v>
       </c>
       <c r="J45">
-        <v>-100.2451919733967</v>
+        <v>4841127.362346651</v>
       </c>
       <c r="K45">
-        <v>-474.6492250779613</v>
+        <v>3983753.927900786</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,28 +2026,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>17.36473314631209</v>
+        <v>1116402.18302847</v>
       </c>
       <c r="G46">
-        <v>472.6287890909136</v>
+        <v>4841741.605280723</v>
       </c>
       <c r="H46">
-        <v>1441.47747998437</v>
+        <v>3986290.919064605</v>
       </c>
       <c r="I46">
-        <v>1217.506890296644</v>
+        <v>1117166.343430946</v>
       </c>
       <c r="J46">
-        <v>-153.2464766551395</v>
+        <v>4841078.710797548</v>
       </c>
       <c r="K46">
-        <v>-742.4786046555122</v>
+        <v>3983406.331515381</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,28 +2061,28 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>17.13480599729898</v>
+        <v>1116401.647389555</v>
       </c>
       <c r="G47">
-        <v>487.9024222065867</v>
+        <v>4841758.118120628</v>
       </c>
       <c r="H47">
-        <v>1447.458708682224</v>
+        <v>3986298.906633217</v>
       </c>
       <c r="I47">
-        <v>1348.177653053923</v>
+        <v>1117252.708414077</v>
       </c>
       <c r="J47">
-        <v>-206.2477613368823</v>
+        <v>4841030.059248446</v>
       </c>
       <c r="K47">
-        <v>-1021.980303574243</v>
+        <v>3983043.586470713</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,28 +2096,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>16.91377495307564</v>
+        <v>1116401.13247503</v>
       </c>
       <c r="G48">
-        <v>503.1760553222597</v>
+        <v>4841774.630960533</v>
       </c>
       <c r="H48">
-        <v>1453.284807156278</v>
+        <v>3986306.687034813</v>
       </c>
       <c r="I48">
-        <v>1482.066063129201</v>
+        <v>1117341.200055464</v>
       </c>
       <c r="J48">
-        <v>-259.2490460186246</v>
+        <v>4840981.407699344</v>
       </c>
       <c r="K48">
-        <v>-1313.154321834152</v>
+        <v>3982665.69276678</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,28 +2131,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>16.70108087476999</v>
+        <v>1116400.636982324</v>
       </c>
       <c r="G49">
-        <v>518.449688437933</v>
+        <v>4841791.143800437</v>
       </c>
       <c r="H49">
-        <v>1458.963619363565</v>
+        <v>3986314.270744521</v>
       </c>
       <c r="I49">
-        <v>1619.251352127506</v>
+        <v>1117431.87072211</v>
       </c>
       <c r="J49">
-        <v>-312.2503307003674</v>
+        <v>4840932.756150242</v>
       </c>
       <c r="K49">
-        <v>-1616.000659435244</v>
+        <v>3982272.650403582</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,28 +2166,28 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>16.49621260891384</v>
+        <v>1116400.159720652</v>
       </c>
       <c r="G50">
-        <v>533.7233215536061</v>
+        <v>4841807.656640342</v>
       </c>
       <c r="H50">
-        <v>1464.502408972595</v>
+        <v>3986321.667462531</v>
       </c>
       <c r="I50">
-        <v>1759.814702659241</v>
+        <v>1117524.774070506</v>
       </c>
       <c r="J50">
-        <v>-365.2516153821102</v>
+        <v>4840884.104601139</v>
       </c>
       <c r="K50">
-        <v>-1930.519316377516</v>
+        <v>3981864.459381119</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,28 +2201,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>16.29870182029213</v>
+        <v>1116399.699598979</v>
       </c>
       <c r="G51">
-        <v>548.9969546692791</v>
+        <v>4841824.169480246</v>
       </c>
       <c r="H51">
-        <v>1469.907915227451</v>
+        <v>3986328.886188695</v>
       </c>
       <c r="I51">
-        <v>1903.839296381909</v>
+        <v>1117619.965078386</v>
       </c>
       <c r="J51">
-        <v>-418.2529000638531</v>
+        <v>4840835.453052036</v>
       </c>
       <c r="K51">
-        <v>-2256.710292660969</v>
+        <v>3981441.119699392</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,28 +2236,28 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>16.10811848884872</v>
+        <v>1116399.255615528</v>
       </c>
       <c r="G52">
-        <v>564.2705877849523</v>
+        <v>4841840.682320151</v>
       </c>
       <c r="H52">
-        <v>1475.186402247065</v>
+        <v>3986335.935288365</v>
       </c>
       <c r="I52">
-        <v>2051.410363224803</v>
+        <v>1117717.500077262</v>
       </c>
       <c r="J52">
-        <v>-471.2541847455959</v>
+        <v>4840786.801502935</v>
       </c>
       <c r="K52">
-        <v>-2594.573588285602</v>
+        <v>3981002.6313584</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,28 +2271,28 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>15.92406697210818</v>
+        <v>1116398.826848612</v>
       </c>
       <c r="G53">
-        <v>579.5442209006254</v>
+        <v>4841857.195160055</v>
       </c>
       <c r="H53">
-        <v>1480.343702664203</v>
+        <v>3986342.822550667</v>
       </c>
       <c r="I53">
-        <v>2202.615231825807</v>
+        <v>1117817.436785754</v>
       </c>
       <c r="J53">
-        <v>-524.2554694273382</v>
+        <v>4840738.149953833</v>
       </c>
       <c r="K53">
-        <v>-2944.109203251413</v>
+        <v>3980548.994358144</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,28 +2306,28 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>15.74618255106696</v>
+        <v>1116398.412448578</v>
       </c>
       <c r="G54">
-        <v>594.8178540162985</v>
+        <v>4841873.70799996</v>
       </c>
       <c r="H54">
-        <v>1485.385256366547</v>
+        <v>3986349.555240245</v>
       </c>
       <c r="I54">
-        <v>2357.543381210186</v>
+        <v>1117919.834343753</v>
       </c>
       <c r="J54">
-        <v>-577.256754109081</v>
+        <v>4840689.498404729</v>
       </c>
       <c r="K54">
-        <v>-3305.317137558407</v>
+        <v>3980080.208698623</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,28 +2341,28 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G55">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H55">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I55">
-        <v>-1827.823942043368</v>
+        <v>1114861.561130935</v>
       </c>
       <c r="J55">
-        <v>2353.223289250725</v>
+        <v>4843231.737651877</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.208749554</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,28 +2376,28 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G56">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H56">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I56">
-        <v>-1791.737830412413</v>
+        <v>1114891.175132809</v>
       </c>
       <c r="J56">
-        <v>2295.979264003559</v>
+        <v>4843183.085978628</v>
       </c>
       <c r="K56">
-        <v>488.959803931829</v>
+        <v>3984667.00419923</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,28 +2411,28 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G57">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H57">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I57">
-        <v>-1754.763131481161</v>
+        <v>1114921.518352236</v>
       </c>
       <c r="J57">
-        <v>2238.735238756394</v>
+        <v>4843134.434305379</v>
       </c>
       <c r="K57">
-        <v>953.5378307283385</v>
+        <v>3984955.651015237</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,28 +2446,28 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G58">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H58">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I58">
-        <v>-1716.877964604825</v>
+        <v>1114952.608745526</v>
       </c>
       <c r="J58">
-        <v>2181.491213509229</v>
+        <v>4843085.78263213</v>
       </c>
       <c r="K58">
-        <v>1393.734080389532</v>
+        <v>3985229.149197574</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,28 +2481,28 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G59">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H59">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I59">
-        <v>-1678.059910347874</v>
+        <v>1114984.464711148</v>
       </c>
       <c r="J59">
-        <v>2124.247188262063</v>
+        <v>4843037.130958881</v>
       </c>
       <c r="K59">
-        <v>1809.548552915406</v>
+        <v>3985487.498746243</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,28 +2516,28 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G60">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H60">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I60">
-        <v>-1638.2859972168</v>
+        <v>1115017.105100616</v>
       </c>
       <c r="J60">
-        <v>2067.003163014898</v>
+        <v>4842988.479285632</v>
       </c>
       <c r="K60">
-        <v>2200.981248305965</v>
+        <v>3985730.699661242</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,28 +2551,28 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G61">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H61">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I61">
-        <v>-1597.532688066203</v>
+        <v>1115050.549229647</v>
       </c>
       <c r="J61">
-        <v>2009.759137767733</v>
+        <v>4842939.827612382</v>
       </c>
       <c r="K61">
-        <v>2568.032166561206</v>
+        <v>3985958.751942572</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,28 +2586,28 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G62">
-        <v>-105.1152903669764</v>
+        <v>4841130.381936644</v>
       </c>
       <c r="H62">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I62">
-        <v>-1555.775866170129</v>
+        <v>1115084.816889586</v>
       </c>
       <c r="J62">
-        <v>1952.515112520567</v>
+        <v>4842891.175939134</v>
       </c>
       <c r="K62">
-        <v>2910.701307681129</v>
+        <v>3986171.655590233</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,28 +2621,28 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>243.6707593340715</v>
+        <v>1116578.400634993</v>
       </c>
       <c r="G63">
-        <v>-87.75779712662272</v>
+        <v>4841146.894775702</v>
       </c>
       <c r="H63">
-        <v>1075.94518570502</v>
+        <v>3985224.991461896</v>
       </c>
       <c r="I63">
-        <v>-1512.990820950437</v>
+        <v>1115119.928359126</v>
       </c>
       <c r="J63">
-        <v>1895.271087273402</v>
+        <v>4842842.524265885</v>
       </c>
       <c r="K63">
-        <v>3228.988671665734</v>
+        <v>3986369.410604224</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,28 +2656,28 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>189.1169350111011</v>
+        <v>1116529.720075723</v>
       </c>
       <c r="G64">
-        <v>-70.40030388626904</v>
+        <v>4841163.407614759</v>
       </c>
       <c r="H64">
-        <v>1325.557228693375</v>
+        <v>3985424.245701832</v>
       </c>
       <c r="I64">
-        <v>-1469.152233353729</v>
+        <v>1115155.904416302</v>
       </c>
       <c r="J64">
-        <v>1838.027062026237</v>
+        <v>4842793.872592636</v>
       </c>
       <c r="K64">
-        <v>3522.894258515021</v>
+        <v>3986552.016984547</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,28 +2691,28 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>157.0692999366074</v>
+        <v>1116501.122689232</v>
       </c>
       <c r="G65">
-        <v>-53.04281064591539</v>
+        <v>4841179.920453817</v>
       </c>
       <c r="H65">
-        <v>1474.238927141755</v>
+        <v>3985542.931717386</v>
       </c>
       <c r="I65">
-        <v>-1424.234160868213</v>
+        <v>1115192.766350788</v>
       </c>
       <c r="J65">
-        <v>1780.783036779071</v>
+        <v>4842745.220919386</v>
       </c>
       <c r="K65">
-        <v>3792.418068228992</v>
+        <v>3986719.4747312</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,28 +2726,28 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>136.8384815441218</v>
+        <v>1116483.069920869</v>
       </c>
       <c r="G66">
-        <v>-35.68531740556171</v>
+        <v>4841196.433292875</v>
       </c>
       <c r="H66">
-        <v>1580.49168801098</v>
+        <v>3985627.748591022</v>
       </c>
       <c r="I66">
-        <v>-1378.21002217161</v>
+        <v>1115230.535976499</v>
       </c>
       <c r="J66">
-        <v>1723.539011531906</v>
+        <v>4842696.569246138</v>
       </c>
       <c r="K66">
-        <v>4037.560100807646</v>
+        <v>3986871.783844184</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,28 +2761,28 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>122.7295909189154</v>
+        <v>1116470.479993493</v>
       </c>
       <c r="G67">
-        <v>-18.32782416520803</v>
+        <v>4841212.946131932</v>
       </c>
       <c r="H67">
-        <v>1663.230655974887</v>
+        <v>3985693.795445081</v>
       </c>
       <c r="I67">
-        <v>-1331.052581401035</v>
+        <v>1115269.235644495</v>
       </c>
       <c r="J67">
-        <v>1666.294986284741</v>
+        <v>4842647.917572889</v>
       </c>
       <c r="K67">
-        <v>4258.320356250982</v>
+        <v>3987008.944323499</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,28 +2796,28 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>112.2039359994447</v>
+        <v>1116461.087530645</v>
       </c>
       <c r="G68">
-        <v>-0.970330924854372</v>
+        <v>4841229.45897099</v>
       </c>
       <c r="H68">
-        <v>1731.000288556678</v>
+        <v>3985747.892941617</v>
       </c>
       <c r="I68">
-        <v>-1282.733932035535</v>
+        <v>1115308.888256212</v>
       </c>
       <c r="J68">
-        <v>1609.050961037575</v>
+        <v>4842599.265899641</v>
       </c>
       <c r="K68">
-        <v>4454.698834558998</v>
+        <v>3987130.956169145</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,28 +2831,28 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>103.9743437165513</v>
+        <v>1116453.743936317</v>
       </c>
       <c r="G69">
-        <v>16.3871623154993</v>
+        <v>4841245.971810047</v>
       </c>
       <c r="H69">
-        <v>1788.396220410043</v>
+        <v>3985793.709572257</v>
       </c>
       <c r="I69">
-        <v>-1233.225480381751</v>
+        <v>1115349.517277014</v>
       </c>
       <c r="J69">
-        <v>1551.80693579041</v>
+        <v>4842550.614226391</v>
       </c>
       <c r="K69">
-        <v>4626.695535731698</v>
+        <v>3987237.819381121</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,28 +2866,28 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>97.31600434342819</v>
+        <v>1116447.8024338</v>
       </c>
       <c r="G70">
-        <v>33.74465555585298</v>
+        <v>4841262.484649104</v>
       </c>
       <c r="H70">
-        <v>1838.176737935788</v>
+        <v>3985833.447154885</v>
       </c>
       <c r="I70">
-        <v>-1182.497928652933</v>
+        <v>1115391.146750074</v>
       </c>
       <c r="J70">
-        <v>1494.562910543245</v>
+        <v>4842501.962553142</v>
       </c>
       <c r="K70">
-        <v>4774.310459769081</v>
+        <v>3987329.533959428</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,28 +2901,28 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>91.78721016450723</v>
+        <v>1116442.868869636</v>
       </c>
       <c r="G71">
-        <v>51.10214879620664</v>
+        <v>4841278.997488162</v>
       </c>
       <c r="H71">
-        <v>1882.1280089447</v>
+        <v>3985868.531508164</v>
       </c>
       <c r="I71">
-        <v>-1130.521257631285</v>
+        <v>1115433.80131061</v>
       </c>
       <c r="J71">
-        <v>1437.31888529608</v>
+        <v>4842453.310879894</v>
       </c>
       <c r="K71">
-        <v>4897.543606671146</v>
+        <v>3987406.099904066</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,28 +2936,28 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>87.10197308794663</v>
+        <v>1116438.688045211</v>
       </c>
       <c r="G72">
-        <v>68.45964203656034</v>
+        <v>4841295.510327219</v>
       </c>
       <c r="H72">
-        <v>1921.473240762662</v>
+        <v>3985899.939064335</v>
       </c>
       <c r="I72">
-        <v>-1077.264708903389</v>
+        <v>1115477.506200459</v>
       </c>
       <c r="J72">
-        <v>1380.074860048914</v>
+        <v>4842404.659206645</v>
       </c>
       <c r="K72">
-        <v>4996.394976437895</v>
+        <v>3987467.517215035</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,28 +2971,28 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>83.06609843993505</v>
+        <v>1116435.086672852</v>
       </c>
       <c r="G73">
-        <v>85.81713527691399</v>
+        <v>4841312.023166277</v>
       </c>
       <c r="H73">
-        <v>1957.086924466726</v>
+        <v>3985928.367890896</v>
       </c>
       <c r="I73">
-        <v>-1022.696766658195</v>
+        <v>1115522.287283011</v>
       </c>
       <c r="J73">
-        <v>1322.830834801749</v>
+        <v>4842356.007533395</v>
       </c>
       <c r="K73">
-        <v>5070.864569069325</v>
+        <v>3987513.785892335</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,28 +3006,28 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>79.54257133157809</v>
+        <v>1116431.942488693</v>
       </c>
       <c r="G74">
-        <v>103.1746285172676</v>
+        <v>4841328.536005335</v>
       </c>
       <c r="H74">
-        <v>1989.615958083446</v>
+        <v>3985954.334377896</v>
       </c>
       <c r="I74">
-        <v>-966.7851390367997</v>
+        <v>1115568.171058524</v>
       </c>
       <c r="J74">
-        <v>1265.586809554583</v>
+        <v>4842307.355860146</v>
       </c>
       <c r="K74">
-        <v>5120.952384565437</v>
+        <v>3987544.905935965</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,28 +3041,28 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>76.43162991968421</v>
+        <v>1116429.166471252</v>
       </c>
       <c r="G75">
-        <v>120.5321217576213</v>
+        <v>4841345.048844391</v>
       </c>
       <c r="H75">
-        <v>2019.552357430307</v>
+        <v>3985978.231279771</v>
       </c>
       <c r="I75">
-        <v>-909.4967390229815</v>
+        <v>1115615.184679797</v>
       </c>
       <c r="J75">
-        <v>1208.342784307418</v>
+        <v>4842258.704186897</v>
       </c>
       <c r="K75">
-        <v>5146.658422926233</v>
+        <v>3987560.877345927</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,28 +3076,28 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>73.65870186232929</v>
+        <v>1116426.692076646</v>
       </c>
       <c r="G76">
-        <v>137.889614997975</v>
+        <v>4841361.56168345</v>
       </c>
       <c r="H76">
-        <v>2047.279065638994</v>
+        <v>3986000.364283066</v>
       </c>
       <c r="I76">
-        <v>-850.7976648631845</v>
+        <v>1115663.355968242</v>
       </c>
       <c r="J76">
-        <v>1151.098759060253</v>
+        <v>4842210.052513649</v>
       </c>
       <c r="K76">
-        <v>5147.98268415171</v>
+        <v>3987561.700122219</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,28 +3111,28 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>71.16678807704264</v>
+        <v>1116424.468442314</v>
       </c>
       <c r="G77">
-        <v>155.2471082383287</v>
+        <v>4841378.074522507</v>
       </c>
       <c r="H77">
-        <v>2073.099986249864</v>
+        <v>3986020.97598052</v>
       </c>
       <c r="I77">
-        <v>-790.653180004361</v>
+        <v>1115712.713430347</v>
       </c>
       <c r="J77">
-        <v>1093.854733813087</v>
+        <v>4842161.400840399</v>
       </c>
       <c r="K77">
-        <v>5124.92516824187</v>
+        <v>3987547.374264841</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,28 +3146,28 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>68.91148042183785</v>
+        <v>1116422.455941094</v>
       </c>
       <c r="G78">
-        <v>172.6046014786824</v>
+        <v>4841394.587361565</v>
       </c>
       <c r="H78">
-        <v>2097.260341744731</v>
+        <v>3986040.262122379</v>
       </c>
       <c r="I78">
-        <v>-729.0276925377998</v>
+        <v>1115763.286274549</v>
       </c>
       <c r="J78">
-        <v>1036.610708565922</v>
+        <v>4842112.74916715</v>
       </c>
       <c r="K78">
-        <v>5077.485875196712</v>
+        <v>3987517.899773795</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,28 +3181,28 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>66.8576016873626</v>
+        <v>1116420.623182956</v>
       </c>
       <c r="G79">
-        <v>189.9620947190361</v>
+        <v>4841411.100200622</v>
       </c>
       <c r="H79">
-        <v>2119.960871983373</v>
+        <v>3986058.382950383</v>
       </c>
       <c r="I79">
-        <v>-665.8847341367837</v>
+        <v>1115815.104428514</v>
       </c>
       <c r="J79">
-        <v>979.3666833187569</v>
+        <v>4842064.097493901</v>
       </c>
       <c r="K79">
-        <v>5005.664805016238</v>
+        <v>3987473.27664908</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,28 +3216,28 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>64.97687911462253</v>
+        <v>1116418.944938987</v>
       </c>
       <c r="G80">
-        <v>207.3195879593897</v>
+        <v>4841427.61303968</v>
       </c>
       <c r="H80">
-        <v>2141.367982187499</v>
+        <v>3986075.471298452</v>
       </c>
       <c r="I80">
-        <v>-601.1869384755993</v>
+        <v>1115868.198556848</v>
       </c>
       <c r="J80">
-        <v>922.1226580715916</v>
+        <v>4842015.445820651</v>
       </c>
       <c r="K80">
-        <v>4909.461957700445</v>
+        <v>3987413.504890695</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,28 +3251,28 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>63.24629595259867</v>
+        <v>1116417.400670419</v>
       </c>
       <c r="G81">
-        <v>224.6770811997434</v>
+        <v>4841444.125878737</v>
       </c>
       <c r="H81">
-        <v>2161.621152535374</v>
+        <v>3986091.638507436</v>
       </c>
       <c r="I81">
-        <v>-534.8960191171391</v>
+        <v>1115922.600079246</v>
       </c>
       <c r="J81">
-        <v>864.8786328244264</v>
+        <v>4841966.794147403</v>
       </c>
       <c r="K81">
-        <v>4788.877333249335</v>
+        <v>3987338.584498642</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,28 +3286,28 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>61.64689944809824</v>
+        <v>1116415.973464951</v>
       </c>
       <c r="G82">
-        <v>242.0345744400971</v>
+        <v>4841460.638717795</v>
       </c>
       <c r="H82">
-        <v>2180.83845087484</v>
+        <v>3986106.97882567</v>
       </c>
       <c r="I82">
-        <v>-466.9727468560035</v>
+        <v>1115978.341189085</v>
       </c>
       <c r="J82">
-        <v>807.6346075772609</v>
+        <v>4841918.142474154</v>
       </c>
       <c r="K82">
-        <v>4643.910931662907</v>
+        <v>3987248.515472919</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,28 +3321,28 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>60.16292317146998</v>
+        <v>1116414.64925357</v>
       </c>
       <c r="G83">
-        <v>259.3920676804507</v>
+        <v>4841477.151556852</v>
       </c>
       <c r="H83">
-        <v>2199.120703010454</v>
+        <v>3986121.572737926</v>
       </c>
       <c r="I83">
-        <v>-397.3769265037025</v>
+        <v>1116035.454872473</v>
       </c>
       <c r="J83">
-        <v>750.3905823300955</v>
+        <v>4841869.490800905</v>
       </c>
       <c r="K83">
-        <v>4474.562752941161</v>
+        <v>3987143.297813527</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,28 +3356,28 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>58.78113025908581</v>
+        <v>1116413.41622449</v>
       </c>
       <c r="G84">
-        <v>276.7495609208044</v>
+        <v>4841493.66439591</v>
       </c>
       <c r="H84">
-        <v>2216.55469469392</v>
+        <v>3986135.489521429</v>
       </c>
       <c r="I84">
-        <v>-326.0673731022068</v>
+        <v>1116093.974927771</v>
       </c>
       <c r="J84">
-        <v>693.1465570829304</v>
+        <v>4841820.839127655</v>
       </c>
       <c r="K84">
-        <v>4280.8327970841</v>
+        <v>3987022.931520465</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,28 +3391,28 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>57.49031476918008</v>
+        <v>1116412.264378204</v>
       </c>
       <c r="G85">
-        <v>294.1070541611581</v>
+        <v>4841510.177234968</v>
       </c>
       <c r="H85">
-        <v>2233.215663181163</v>
+        <v>3986148.789234748</v>
       </c>
       <c r="I85">
-        <v>-253.0018875517856</v>
+        <v>1116153.935985593</v>
       </c>
       <c r="J85">
-        <v>635.902531835765</v>
+        <v>4841772.187454406</v>
       </c>
       <c r="K85">
-        <v>4062.721064091719</v>
+        <v>3986887.416593735</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,28 +3426,28 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>56.28091807434002</v>
+        <v>1116411.185185164</v>
       </c>
       <c r="G86">
-        <v>311.4645474015117</v>
+        <v>4841526.690074025</v>
       </c>
       <c r="H86">
-        <v>2249.169259497001</v>
+        <v>3986161.524284187</v>
       </c>
       <c r="I86">
-        <v>-178.137231638699</v>
+        <v>1116215.373529301</v>
       </c>
       <c r="J86">
-        <v>578.6585065885998</v>
+        <v>4841723.535781158</v>
       </c>
       <c r="K86">
-        <v>3820.227553964022</v>
+        <v>3986736.753033335</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,28 +3461,28 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>55.14473020404946</v>
+        <v>1116410.171319287</v>
       </c>
       <c r="G87">
-        <v>328.8220406418654</v>
+        <v>4841543.202913082</v>
       </c>
       <c r="H87">
-        <v>2264.473110854113</v>
+        <v>3986173.740671</v>
       </c>
       <c r="I87">
-        <v>-101.429102447973</v>
+        <v>1116278.323916001</v>
       </c>
       <c r="J87">
-        <v>521.4144813414345</v>
+        <v>4841674.884107909</v>
       </c>
       <c r="K87">
-        <v>3553.352266701006</v>
+        <v>3986570.940839265</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,28 +3496,28 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>54.07465477487357</v>
+        <v>1116409.216448185</v>
       </c>
       <c r="G88">
-        <v>346.1795338822191</v>
+        <v>4841559.71575214</v>
       </c>
       <c r="H88">
-        <v>2279.178077180429</v>
+        <v>3986185.478994413</v>
       </c>
       <c r="I88">
-        <v>-22.83210614611063</v>
+        <v>1116342.82439806</v>
       </c>
       <c r="J88">
-        <v>464.170456094269</v>
+        <v>4841626.232434659</v>
       </c>
       <c r="K88">
-        <v>3262.095202302673</v>
+        <v>3986389.980011527</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,28 +3531,28 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>53.06452211092184</v>
+        <v>1116408.31506641</v>
       </c>
       <c r="G89">
-        <v>363.5370271225728</v>
+        <v>4841576.228591197</v>
       </c>
       <c r="H89">
-        <v>2293.329270920401</v>
+        <v>3986196.775265696</v>
       </c>
       <c r="I89">
-        <v>57.70026888177461</v>
+        <v>1116408.913145151</v>
       </c>
       <c r="J89">
-        <v>406.9264308471039</v>
+        <v>4841577.58076141</v>
       </c>
       <c r="K89">
-        <v>2946.456360769023</v>
+        <v>3986193.87055012</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,28 +3566,28 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>52.10893930307117</v>
+        <v>1116407.462361653</v>
       </c>
       <c r="G90">
-        <v>380.8945203629264</v>
+        <v>4841592.741430256</v>
       </c>
       <c r="H90">
-        <v>2306.966891690688</v>
+        <v>3986207.661574419</v>
       </c>
       <c r="I90">
-        <v>140.2156795562949</v>
+        <v>1116476.629266838</v>
       </c>
       <c r="J90">
-        <v>349.6824055999384</v>
+        <v>4841528.929088161</v>
       </c>
       <c r="K90">
-        <v>2606.435742100055</v>
+        <v>3985982.612455044</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,28 +3601,28 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>51.20316888042544</v>
+        <v>1116406.654106479</v>
       </c>
       <c r="G91">
-        <v>398.2520136032801</v>
+        <v>4841609.254269312</v>
       </c>
       <c r="H91">
-        <v>2320.126914716924</v>
+        <v>3986218.166638014</v>
       </c>
       <c r="I91">
-        <v>224.7629563058902</v>
+        <v>1116546.012835724</v>
       </c>
       <c r="J91">
-        <v>292.4383803527733</v>
+        <v>4841480.277414913</v>
       </c>
       <c r="K91">
-        <v>2242.033346295771</v>
+        <v>3985756.205726298</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,28 +3636,28 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>50.34302985986857</v>
+        <v>1116405.886570031</v>
       </c>
       <c r="G92">
-        <v>415.6095068436338</v>
+        <v>4841625.767108371</v>
       </c>
       <c r="H92">
-        <v>2332.841662752224</v>
+        <v>3986228.316258302</v>
       </c>
       <c r="I92">
-        <v>311.3921319633749</v>
+        <v>1116617.104911162</v>
       </c>
       <c r="J92">
-        <v>235.1943551056079</v>
+        <v>4841431.625741663</v>
       </c>
       <c r="K92">
-        <v>1853.249173356167</v>
+        <v>3985514.650363883</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,28 +3671,28 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>49.52481645554654</v>
+        <v>1116405.156445486</v>
       </c>
       <c r="G93">
-        <v>432.9670000839874</v>
+        <v>4841642.279947428</v>
       </c>
       <c r="H93">
-        <v>2345.140284369595</v>
+        <v>3986238.133703299</v>
       </c>
       <c r="I93">
-        <v>400.1544713740458</v>
+        <v>1116689.947563554</v>
       </c>
       <c r="J93">
-        <v>177.9503298584424</v>
+        <v>4841382.974068414</v>
       </c>
       <c r="K93">
-        <v>1440.083223281247</v>
+        <v>3985257.946367799</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,28 +3706,28 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>48.74523084153399</v>
+        <v>1116404.460790064</v>
       </c>
       <c r="G94">
-        <v>450.3244933243411</v>
+        <v>4841658.792786485</v>
       </c>
       <c r="H94">
-        <v>2357.04915643913</v>
+        <v>3986247.640028492</v>
       </c>
       <c r="I94">
-        <v>491.1025017328482</v>
+        <v>1116764.583899248</v>
       </c>
       <c r="J94">
-        <v>120.7063046112773</v>
+        <v>4841334.322395165</v>
       </c>
       <c r="K94">
-        <v>1002.53549607101</v>
+        <v>3984986.093738046</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,28 +3741,28 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>48.00132718476753</v>
+        <v>1116403.79697508</v>
       </c>
       <c r="G95">
-        <v>467.6819865646947</v>
+        <v>4841675.305625543</v>
       </c>
       <c r="H95">
-        <v>2368.592224769118</v>
+        <v>3986256.854348759</v>
       </c>
       <c r="I95">
-        <v>584.2900436685843</v>
+        <v>1116841.058086043</v>
       </c>
       <c r="J95">
-        <v>63.46227936411188</v>
+        <v>4841285.670721916</v>
       </c>
       <c r="K95">
-        <v>540.6059917254535</v>
+        <v>3984699.092474623</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,28 +3776,28 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>47.2904647822417</v>
+        <v>1116403.162644128</v>
       </c>
       <c r="G96">
-        <v>485.0394798050485</v>
+        <v>4841691.8184646</v>
       </c>
       <c r="H96">
-        <v>2379.791293972519</v>
+        <v>3986265.794069758</v>
       </c>
       <c r="I96">
-        <v>679.7722430935206</v>
+        <v>1116919.415379334</v>
       </c>
       <c r="J96">
-        <v>6.218254116946464</v>
+        <v>4841237.019048668</v>
       </c>
       <c r="K96">
-        <v>54.29471024458022</v>
+        <v>3984396.942577532</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,28 +3811,28 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>46.61026860287993</v>
+        <v>1116402.555677873</v>
       </c>
       <c r="G97">
-        <v>502.3969730454021</v>
+        <v>4841708.331303658</v>
       </c>
       <c r="H97">
-        <v>2390.666275378442</v>
+        <v>3986274.475085819</v>
       </c>
       <c r="I97">
-        <v>777.6056038372824</v>
+        <v>1116999.702148885</v>
       </c>
       <c r="J97">
-        <v>-51.02577113021869</v>
+        <v>4841188.367375419</v>
       </c>
       <c r="K97">
-        <v>-456.3983483716091</v>
+        <v>3984079.644046771</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,28 +3846,28 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>45.95859589028219</v>
+        <v>1116401.974164248</v>
       </c>
       <c r="G98">
-        <v>519.7544662857557</v>
+        <v>4841724.844142715</v>
       </c>
       <c r="H98">
-        <v>2401.235400071103</v>
+        <v>3986282.911950011</v>
       </c>
       <c r="I98">
-        <v>877.8480210843184</v>
+        <v>1117081.965906273</v>
       </c>
       <c r="J98">
-        <v>-108.2697963773841</v>
+        <v>4841139.71570217</v>
       </c>
       <c r="K98">
-        <v>-991.4731841231174</v>
+        <v>3983747.196882341</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,28 +3881,28 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>45.33350775623675</v>
+        <v>1116401.416373107</v>
       </c>
       <c r="G99">
-        <v>537.1119595261096</v>
+        <v>4841741.356981773</v>
       </c>
       <c r="H99">
-        <v>2411.515402781985</v>
+        <v>3986291.118020929</v>
       </c>
       <c r="I99">
-        <v>980.5588156347303</v>
+        <v>1117166.255333005</v>
       </c>
       <c r="J99">
-        <v>-165.5138216245495</v>
+        <v>4841091.06402892</v>
       </c>
       <c r="K99">
-        <v>-1550.929797009945</v>
+        <v>3983399.601084242</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,28 +3916,28 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>44.73324490708556</v>
+        <v>1116400.88073456</v>
       </c>
       <c r="G100">
-        <v>554.4694527664632</v>
+        <v>4841757.86982083</v>
       </c>
       <c r="H100">
-        <v>2421.521681293247</v>
+        <v>3986299.10558994</v>
       </c>
       <c r="I100">
-        <v>1085.798769008748</v>
+        <v>1117252.620309326</v>
       </c>
       <c r="J100">
-        <v>-222.7578468717149</v>
+        <v>4841042.412355672</v>
       </c>
       <c r="K100">
-        <v>-2134.768187032088</v>
+        <v>3983036.856652473</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,28 +3951,28 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>44.15620681077622</v>
+        <v>1116400.365820388</v>
       </c>
       <c r="G101">
-        <v>571.8269460068168</v>
+        <v>4841774.382659888</v>
       </c>
       <c r="H101">
-        <v>2431.268435164461</v>
+        <v>3986306.885991924</v>
       </c>
       <c r="I101">
-        <v>1193.630159415618</v>
+        <v>1117341.111943735</v>
       </c>
       <c r="J101">
-        <v>-280.0018721188798</v>
+        <v>4840993.760682423</v>
       </c>
       <c r="K101">
-        <v>-2742.988354189545</v>
+        <v>3982658.963587035</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,28 +3986,28 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>43.60093374280956</v>
+        <v>1116399.870328022</v>
       </c>
       <c r="G102">
-        <v>589.1844392471705</v>
+        <v>4841790.895498945</v>
       </c>
       <c r="H102">
-        <v>2440.768786919889</v>
+        <v>3986314.469702011</v>
       </c>
       <c r="I102">
-        <v>1304.116798608198</v>
+        <v>1117431.78260323</v>
       </c>
       <c r="J102">
-        <v>-337.2458973660453</v>
+        <v>4840945.109009174</v>
       </c>
       <c r="K102">
-        <v>-3375.590298482324</v>
+        <v>3982265.921887929</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,28 +4021,28 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>43.06609125251948</v>
+        <v>1116399.393066677</v>
       </c>
       <c r="G103">
-        <v>606.5419324875242</v>
+        <v>4841807.408338003</v>
       </c>
       <c r="H103">
-        <v>2450.034888291857</v>
+        <v>3986321.86642039</v>
       </c>
       <c r="I103">
-        <v>1417.324069645051</v>
+        <v>1117524.6859443</v>
       </c>
       <c r="J103">
-        <v>-394.4899226132106</v>
+        <v>4840896.457335924</v>
       </c>
       <c r="K103">
-        <v>-4032.574019910421</v>
+        <v>3981857.731555153</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,28 +4056,28 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>42.55045667337109</v>
+        <v>1116398.93294532</v>
       </c>
       <c r="G104">
-        <v>623.8994257278778</v>
+        <v>4841823.921177061</v>
       </c>
       <c r="H104">
-        <v>2459.07801367843</v>
+        <v>3986329.085146914</v>
       </c>
       <c r="I104">
-        <v>1533.318965582406</v>
+        <v>1117619.876944674</v>
       </c>
       <c r="J104">
-        <v>-451.7339478603761</v>
+        <v>4840847.805662675</v>
       </c>
       <c r="K104">
-        <v>-4713.939518473835</v>
+        <v>3981434.392588708</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,28 +4091,28 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>42.0529073668887</v>
+        <v>1116398.488962175</v>
       </c>
       <c r="G105">
-        <v>641.2569189682315</v>
+        <v>4841840.434016118</v>
       </c>
       <c r="H105">
-        <v>2467.908642618482</v>
+        <v>3986336.134246936</v>
       </c>
       <c r="I105">
-        <v>1652.170129118873</v>
+        <v>1117717.411935858</v>
       </c>
       <c r="J105">
-        <v>-508.9779731075415</v>
+        <v>4840799.153989427</v>
       </c>
       <c r="K105">
-        <v>-5419.686794172566</v>
+        <v>3980995.904988593</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,28 +4126,28 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>41.57241044295662</v>
+        <v>1116398.060195553</v>
       </c>
       <c r="G106">
-        <v>658.6144122085851</v>
+        <v>4841856.946855175</v>
       </c>
       <c r="H106">
-        <v>2476.536532797409</v>
+        <v>3986343.021509582</v>
       </c>
       <c r="I106">
-        <v>1773.947893216357</v>
+        <v>1117817.34863647</v>
       </c>
       <c r="J106">
-        <v>-566.2219983547063</v>
+        <v>4840750.502316178</v>
       </c>
       <c r="K106">
-        <v>-6149.815847006609</v>
+        <v>3980542.26875481</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,28 +4161,28 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>41.10801374229678</v>
+        <v>1116397.645795804</v>
       </c>
       <c r="G107">
-        <v>675.9719054489389</v>
+        <v>4841873.459694234</v>
       </c>
       <c r="H107">
-        <v>2484.970784858904</v>
+        <v>3986349.754199495</v>
       </c>
       <c r="I107">
-        <v>1898.724322721255</v>
+        <v>1117919.746186394</v>
       </c>
       <c r="J107">
-        <v>-623.4660236018718</v>
+        <v>4840701.850642928</v>
       </c>
       <c r="K107">
-        <v>-6904.326676975976</v>
+        <v>3980073.483887357</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4193,28 +4196,28 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G108">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H108">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I108">
-        <v>-1303.484678098387</v>
+        <v>1114861.072672708</v>
       </c>
       <c r="J108">
-        <v>1971.147415871315</v>
+        <v>4843224.242485052</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984367.056133408</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4228,28 +4231,28 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G109">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H109">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I109">
-        <v>-1277.750419715431</v>
+        <v>1114890.686661608</v>
       </c>
       <c r="J109">
-        <v>1923.197689657297</v>
+        <v>4843175.590887095</v>
       </c>
       <c r="K109">
-        <v>409.4049090089332</v>
+        <v>3984670.851876435</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,28 +4266,28 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G110">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H110">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I110">
-        <v>-1251.382478894878</v>
+        <v>1114921.029867741</v>
       </c>
       <c r="J110">
-        <v>1875.24796344328</v>
+        <v>4843126.939289136</v>
       </c>
       <c r="K110">
-        <v>798.3950126099494</v>
+        <v>3984959.498971166</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4298,28 +4301,28 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G111">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H111">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I111">
-        <v>-1224.36525178968</v>
+        <v>1114952.120247409</v>
       </c>
       <c r="J111">
-        <v>1827.298237229262</v>
+        <v>4843078.287691179</v>
       </c>
       <c r="K111">
-        <v>1166.970310803051</v>
+        <v>3985232.997417598</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4333,28 +4336,28 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G112">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H112">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I112">
-        <v>-1196.682750322409</v>
+        <v>1114983.976199073</v>
       </c>
       <c r="J112">
-        <v>1779.348511015245</v>
+        <v>4843029.636093221</v>
       </c>
       <c r="K112">
-        <v>1515.130803588237</v>
+        <v>3985491.347215734</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,28 +4371,28 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G113">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H113">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I113">
-        <v>-1168.318592723941</v>
+        <v>1115016.616574241</v>
       </c>
       <c r="J113">
-        <v>1731.398784801227</v>
+        <v>4842980.984495263</v>
       </c>
       <c r="K113">
-        <v>1842.876490965509</v>
+        <v>3985734.548365574</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4403,28 +4406,28 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G114">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H114">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I114">
-        <v>-1139.255993839158</v>
+        <v>1115050.060688618</v>
       </c>
       <c r="J114">
-        <v>1683.449058587209</v>
+        <v>4842932.332897305</v>
       </c>
       <c r="K114">
-        <v>2150.207372934864</v>
+        <v>3985962.600867115</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4438,28 +4441,28 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G115">
-        <v>-96.13830812746875</v>
+        <v>4841123.818030209</v>
       </c>
       <c r="H115">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I115">
-        <v>-1109.477755193937</v>
+        <v>1115084.328333544</v>
       </c>
       <c r="J115">
-        <v>1635.499332373191</v>
+        <v>4842883.681299346</v>
       </c>
       <c r="K115">
-        <v>2437.123449496305</v>
+        <v>3986175.504720361</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4473,28 +4476,28 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>263.5940445595716</v>
+        <v>1116578.122300694</v>
       </c>
       <c r="G116">
-        <v>-80.26316734028379</v>
+        <v>4841140.330846879</v>
       </c>
       <c r="H116">
-        <v>695.7744440551177</v>
+        <v>3985230.236967003</v>
       </c>
       <c r="I116">
-        <v>-1078.966254817556</v>
+        <v>1115119.439787701</v>
       </c>
       <c r="J116">
-        <v>1587.549606159174</v>
+        <v>4842835.029701389</v>
       </c>
       <c r="K116">
-        <v>2703.624720649829</v>
+        <v>3986373.259925308</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4508,28 +4511,28 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>204.5797285259883</v>
+        <v>1116529.441753559</v>
       </c>
       <c r="G117">
-        <v>-64.38802655309881</v>
+        <v>4841156.843663546</v>
       </c>
       <c r="H117">
-        <v>857.1894331708357</v>
+        <v>3985429.491469205</v>
       </c>
       <c r="I117">
-        <v>-1047.703436814471</v>
+        <v>1115155.415829114</v>
       </c>
       <c r="J117">
-        <v>1539.599879945157</v>
+        <v>4842786.378103431</v>
       </c>
       <c r="K117">
-        <v>2949.711186395437</v>
+        <v>3986555.866481959</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4543,28 +4546,28 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>169.9117783339285</v>
+        <v>1116500.844374197</v>
       </c>
       <c r="G118">
-        <v>-48.51288576591387</v>
+        <v>4841173.356480215</v>
       </c>
       <c r="H118">
-        <v>953.3364557640978</v>
+        <v>3985548.177640979</v>
       </c>
       <c r="I118">
-        <v>-1015.670800679326</v>
+        <v>1115192.27774745</v>
       </c>
       <c r="J118">
-        <v>1491.650153731139</v>
+        <v>4842737.726505473</v>
       </c>
       <c r="K118">
-        <v>3175.382846733131</v>
+        <v>3986723.324390314</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,28 +4581,28 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>148.026824803192</v>
+        <v>1116482.791610333</v>
       </c>
       <c r="G119">
-        <v>-32.6377449787289</v>
+        <v>4841189.869296883</v>
       </c>
       <c r="H119">
-        <v>1022.046234482671</v>
+        <v>3985632.994626254</v>
       </c>
       <c r="I119">
-        <v>-982.8493903488367</v>
+        <v>1115230.047356612</v>
       </c>
       <c r="J119">
-        <v>1443.700427517121</v>
+        <v>4842689.074907515</v>
       </c>
       <c r="K119">
-        <v>3380.63970166291</v>
+        <v>3986875.63365037</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,28 +4616,28 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>132.7643470470981</v>
+        <v>1116470.201686096</v>
       </c>
       <c r="G120">
-        <v>-16.76260419154395</v>
+        <v>4841206.382113552</v>
       </c>
       <c r="H120">
-        <v>1075.550502359534</v>
+        <v>3985699.041567246</v>
       </c>
       <c r="I120">
-        <v>-949.2197829841037</v>
+        <v>1115268.747007653</v>
       </c>
       <c r="J120">
-        <v>1395.750701303103</v>
+        <v>4842640.423309558</v>
       </c>
       <c r="K120">
-        <v>3565.481751184774</v>
+        <v>3987012.79426213</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,28 +4651,28 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>121.3780815819923</v>
+        <v>1116460.809225589</v>
       </c>
       <c r="G121">
-        <v>-0.8874634043589967</v>
+        <v>4841222.89493022</v>
       </c>
       <c r="H121">
-        <v>1119.374647919996</v>
+        <v>3985753.139134987</v>
       </c>
       <c r="I121">
-        <v>-914.7620774766857</v>
+        <v>1115308.399601997</v>
       </c>
       <c r="J121">
-        <v>1347.800975089086</v>
+        <v>4842591.7717116</v>
       </c>
       <c r="K121">
-        <v>3729.908995298721</v>
+        <v>3987134.806225593</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4683,28 +4686,28 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>112.475612033112</v>
+        <v>1116453.465633092</v>
       </c>
       <c r="G122">
-        <v>14.98767738282596</v>
+        <v>4841239.407746888</v>
       </c>
       <c r="H122">
-        <v>1156.490500202129</v>
+        <v>3985798.955825933</v>
       </c>
       <c r="I122">
-        <v>-879.4558826716552</v>
+        <v>1115349.028604998</v>
       </c>
       <c r="J122">
-        <v>1299.851248875068</v>
+        <v>4842543.120113642</v>
       </c>
       <c r="K122">
-        <v>3873.921434004753</v>
+        <v>3987241.669540759</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,28 +4721,28 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>105.2728659580053</v>
+        <v>1116447.524132056</v>
       </c>
       <c r="G123">
-        <v>30.86281817001093</v>
+        <v>4841255.920563556</v>
       </c>
       <c r="H123">
-        <v>1188.68174225277</v>
+        <v>3985838.693460865</v>
       </c>
       <c r="I123">
-        <v>-843.2803053006544</v>
+        <v>1115390.658059819</v>
       </c>
       <c r="J123">
-        <v>1251.901522661051</v>
+        <v>4842494.468515684</v>
       </c>
       <c r="K123">
-        <v>3997.519067302869</v>
+        <v>3987333.384207627</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4753,28 +4756,28 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>99.29202023346282</v>
+        <v>1116442.590569121</v>
       </c>
       <c r="G124">
-        <v>46.73795895719588</v>
+        <v>4841272.433380226</v>
       </c>
       <c r="H124">
-        <v>1217.103423541026</v>
+        <v>3985873.777860323</v>
       </c>
       <c r="I124">
-        <v>-806.2139376178138</v>
+        <v>1115433.312601667</v>
       </c>
       <c r="J124">
-        <v>1203.951796447033</v>
+        <v>4842445.816917726</v>
       </c>
       <c r="K124">
-        <v>4100.701895193071</v>
+        <v>3987409.950226199</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,28 +4791,28 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>94.22370348464072</v>
+        <v>1116438.409745739</v>
       </c>
       <c r="G125">
-        <v>62.61309974438085</v>
+        <v>4841288.946196893</v>
       </c>
       <c r="H125">
-        <v>1242.546547557073</v>
+        <v>3985905.185457834</v>
       </c>
       <c r="I125">
-        <v>-768.234844731216</v>
+        <v>1115477.017472366</v>
       </c>
       <c r="J125">
-        <v>1156.002070233015</v>
+        <v>4842397.165319769</v>
       </c>
       <c r="K125">
-        <v>4183.469917675357</v>
+        <v>3987471.367596474</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,28 +4826,28 @@
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>89.85784307236902</v>
+        <v>1116434.808374277</v>
       </c>
       <c r="G126">
-        <v>78.48824053156579</v>
+        <v>4841305.459013562</v>
       </c>
       <c r="H126">
-        <v>1265.576615732632</v>
+        <v>3985933.614321814</v>
       </c>
       <c r="I126">
-        <v>-729.3205516224104</v>
+        <v>1115521.798535299</v>
       </c>
       <c r="J126">
-        <v>1108.052344018998</v>
+        <v>4842348.51372181</v>
       </c>
       <c r="K126">
-        <v>4245.823134749728</v>
+        <v>3987517.636318452</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4858,28 +4861,28 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>86.0462213408762</v>
+        <v>1116431.664190902</v>
       </c>
       <c r="G127">
-        <v>94.36338131875075</v>
+        <v>4841321.97183023</v>
       </c>
       <c r="H127">
-        <v>1286.611953388325</v>
+        <v>3985959.580842992</v>
       </c>
       <c r="I127">
-        <v>-689.448029846294</v>
+        <v>1115567.682290709</v>
       </c>
       <c r="J127">
-        <v>1060.10261780498</v>
+        <v>4842299.862123853</v>
       </c>
       <c r="K127">
-        <v>4287.761546416183</v>
+        <v>3987548.756392132</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4893,28 +4896,28 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>82.68091960590388</v>
+        <v>1116428.888174153</v>
       </c>
       <c r="G128">
-        <v>110.2385221059357</v>
+        <v>4841338.484646899</v>
       </c>
       <c r="H128">
-        <v>1305.970729178493</v>
+        <v>3985983.477776322</v>
       </c>
       <c r="I128">
-        <v>-648.5936839034879</v>
+        <v>1115614.695891383</v>
       </c>
       <c r="J128">
-        <v>1012.152891590963</v>
+        <v>4842251.210525895</v>
       </c>
       <c r="K128">
-        <v>4309.285152674723</v>
+        <v>3987564.727817516</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4928,28 +4931,28 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>79.6812682570574</v>
+        <v>1116426.413780164</v>
       </c>
       <c r="G129">
-        <v>126.1136628931207</v>
+        <v>4841354.997463567</v>
       </c>
       <c r="H129">
-        <v>1323.900578436322</v>
+        <v>3986005.610808749</v>
       </c>
       <c r="I129">
-        <v>-606.7333372771492</v>
+        <v>1115662.867158722</v>
       </c>
       <c r="J129">
-        <v>964.203165376945</v>
+        <v>4842202.558927937</v>
       </c>
       <c r="K129">
-        <v>4310.393953525347</v>
+        <v>3987565.550594603</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4963,28 +4966,28 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>76.985607788183</v>
+        <v>1116424.190146386</v>
       </c>
       <c r="G130">
-        <v>141.9888036803056</v>
+        <v>4841371.510280236</v>
       </c>
       <c r="H130">
-        <v>1340.598024478843</v>
+        <v>3986026.222533333</v>
       </c>
       <c r="I130">
-        <v>-563.8422181259499</v>
+        <v>1115712.224599203</v>
       </c>
       <c r="J130">
-        <v>916.2534391629273</v>
+        <v>4842153.907329978</v>
       </c>
       <c r="K130">
-        <v>4291.087948968056</v>
+        <v>3987551.224723392</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4998,28 +5001,28 @@
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>74.54589910837971</v>
+        <v>1116422.177645668</v>
       </c>
       <c r="G131">
-        <v>157.8639444674906</v>
+        <v>4841388.023096904</v>
       </c>
       <c r="H131">
-        <v>1356.221643726324</v>
+        <v>3986045.508700577</v>
       </c>
       <c r="I131">
-        <v>-519.894944624758</v>
+        <v>1115762.797421247</v>
       </c>
       <c r="J131">
-        <v>868.3037129489098</v>
+        <v>4842105.255732021</v>
       </c>
       <c r="K131">
-        <v>4251.367139002849</v>
+        <v>3987521.750203885</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5033,28 +5036,28 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>72.32408880937301</v>
+        <v>1116420.344887987</v>
       </c>
       <c r="G132">
-        <v>173.7390852546756</v>
+        <v>4841404.535913573</v>
       </c>
       <c r="H132">
-        <v>1370.901247312447</v>
+        <v>3986063.629552432</v>
       </c>
       <c r="I132">
-        <v>-474.8655099443496</v>
+        <v>1115814.615552508</v>
       </c>
       <c r="J132">
-        <v>820.3539867348921</v>
+        <v>4842056.604134063</v>
       </c>
       <c r="K132">
-        <v>4191.231523629727</v>
+        <v>3987477.12703608</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,28 +5071,28 @@
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>70.28959246275404</v>
+        <v>1116418.666644437</v>
       </c>
       <c r="G133">
-        <v>189.6142260418605</v>
+        <v>4841421.04873024</v>
       </c>
       <c r="H133">
-        <v>1384.744443414805</v>
+        <v>3986080.717922994</v>
       </c>
       <c r="I133">
-        <v>-428.7272668612566</v>
+        <v>1115867.70965758</v>
       </c>
       <c r="J133">
-        <v>772.4042605208745</v>
+        <v>4842007.952536104</v>
       </c>
       <c r="K133">
-        <v>4110.681102848689</v>
+        <v>3987417.355219979</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5103,28 +5106,28 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>68.41751139577975</v>
+        <v>1116417.122376253</v>
       </c>
       <c r="G134">
-        <v>205.4893668290455</v>
+        <v>4841437.561546909</v>
       </c>
       <c r="H134">
-        <v>1397.841428769047</v>
+        <v>3986096.885153258</v>
       </c>
       <c r="I134">
-        <v>-381.452911988648</v>
+        <v>1115922.111156143</v>
       </c>
       <c r="J134">
-        <v>724.454534306857</v>
+        <v>4841959.300938147</v>
       </c>
       <c r="K134">
-        <v>4009.715876659737</v>
+        <v>3987342.43475558</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5138,28 +5141,28 @@
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>66.68734321873677</v>
+        <v>1116415.695171141</v>
       </c>
       <c r="G135">
-        <v>221.3645076162304</v>
+        <v>4841454.074363578</v>
       </c>
       <c r="H135">
-        <v>1410.268553538997</v>
+        <v>3986112.225491683</v>
       </c>
       <c r="I135">
-        <v>-333.0144696189098</v>
+        <v>1115977.85224156</v>
       </c>
       <c r="J135">
-        <v>676.5048080928393</v>
+        <v>4841910.649340189</v>
       </c>
       <c r="K135">
-        <v>3888.335845062869</v>
+        <v>3987252.365642885</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5173,28 +5176,28 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>65.08203238925555</v>
+        <v>1116414.37096009</v>
       </c>
       <c r="G136">
-        <v>237.2396484034154</v>
+        <v>4841470.587180246</v>
       </c>
       <c r="H136">
-        <v>1422.09101808899</v>
+        <v>3986126.819423148</v>
       </c>
       <c r="I136">
-        <v>-283.3832751683669</v>
+        <v>1116034.965899925</v>
       </c>
       <c r="J136">
-        <v>628.5550818788216</v>
+        <v>4841861.997742232</v>
       </c>
       <c r="K136">
-        <v>3746.541008058085</v>
+        <v>3987147.147881893</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5208,28 +5211,28 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>63.58725975623835</v>
+        <v>1116413.137931318</v>
       </c>
       <c r="G137">
-        <v>253.1147891906003</v>
+        <v>4841487.099996914</v>
       </c>
       <c r="H137">
-        <v>1433.364943594104</v>
+        <v>3986140.736224969</v>
       </c>
       <c r="I137">
-        <v>-232.5299582143411</v>
+        <v>1116093.485929583</v>
       </c>
       <c r="J137">
-        <v>580.6053556648042</v>
+        <v>4841813.346144273</v>
       </c>
       <c r="K137">
-        <v>3584.331365645387</v>
+        <v>3987026.781472603</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5243,28 +5246,28 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>62.19090314498852</v>
+        <v>1116411.986085318</v>
       </c>
       <c r="G138">
-        <v>268.9899299777853</v>
+        <v>4841503.612813583</v>
       </c>
       <c r="H138">
-        <v>1444.138983239103</v>
+        <v>3986154.035955793</v>
       </c>
       <c r="I138">
-        <v>-180.4244251145162</v>
+        <v>1116153.446961134</v>
       </c>
       <c r="J138">
-        <v>532.6556294507864</v>
+        <v>4841764.694546316</v>
       </c>
       <c r="K138">
-        <v>3401.706917824772</v>
+        <v>3986891.266415016</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5278,28 +5281,28 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>60.88262238474839</v>
+        <v>1116410.906892548</v>
       </c>
       <c r="G139">
-        <v>284.8650707649703</v>
+        <v>4841520.125630251</v>
       </c>
       <c r="H139">
-        <v>1454.455591143304</v>
+        <v>3986166.771021995</v>
       </c>
       <c r="I139">
-        <v>-127.0358411983193</v>
+        <v>1116214.884477924</v>
       </c>
       <c r="J139">
-        <v>484.705903236769</v>
+        <v>4841716.042948358</v>
       </c>
       <c r="K139">
-        <v>3198.667664596243</v>
+        <v>3986740.602709132</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,28 +5316,28 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>59.65353623207295</v>
+        <v>1116409.893026924</v>
       </c>
       <c r="G140">
-        <v>300.7402115521552</v>
+        <v>4841536.63844692</v>
       </c>
       <c r="H140">
-        <v>1464.352032719851</v>
+        <v>3986178.987424887</v>
       </c>
       <c r="I140">
-        <v>-72.33261251978253</v>
+        <v>1116277.834837044</v>
       </c>
       <c r="J140">
-        <v>436.7561770227512</v>
+        <v>4841667.391350401</v>
       </c>
       <c r="K140">
-        <v>2975.213605959797</v>
+        <v>3986574.790354952</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5348,28 +5351,28 @@
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>58.4959680809696</v>
+        <v>1116408.938156059</v>
       </c>
       <c r="G141">
-        <v>316.6153523393402</v>
+        <v>4841553.151263587</v>
       </c>
       <c r="H141">
-        <v>1473.861197226069</v>
+        <v>3986190.725763751</v>
       </c>
       <c r="I141">
-        <v>-16.28236716108464</v>
+        <v>1116342.335290843</v>
       </c>
       <c r="J141">
-        <v>388.8064508087335</v>
+        <v>4841618.739752442</v>
       </c>
       <c r="K141">
-        <v>2731.344741915436</v>
+        <v>3986393.829352474</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5383,28 +5386,28 @@
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>57.40324380350418</v>
+        <v>1116408.036774509</v>
       </c>
       <c r="G142">
-        <v>332.4904931265252</v>
+        <v>4841569.664080256</v>
       </c>
       <c r="H142">
-        <v>1483.012257231689</v>
+        <v>3986202.022049902</v>
       </c>
       <c r="I142">
-        <v>41.14806392429114</v>
+        <v>1116408.424008978</v>
       </c>
       <c r="J142">
-        <v>340.8567245947161</v>
+        <v>4841570.088154484</v>
       </c>
       <c r="K142">
-        <v>2467.06107246316</v>
+        <v>3986197.719701699</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5418,28 +5421,28 @@
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>56.36952954939619</v>
+        <v>1116407.184069964</v>
       </c>
       <c r="G143">
-        <v>348.3656339137101</v>
+        <v>4841586.176896925</v>
       </c>
       <c r="H143">
-        <v>1491.831208360193</v>
+        <v>3986212.908372954</v>
       </c>
       <c r="I143">
-        <v>99.99266654011642</v>
+        <v>1116476.140100996</v>
       </c>
       <c r="J143">
-        <v>292.9069983806984</v>
+        <v>4841521.436556526</v>
       </c>
       <c r="K143">
-        <v>2182.362597602969</v>
+        <v>3985986.461402628</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5453,28 +5456,28 @@
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>55.38970049727637</v>
+        <v>1116406.375814992</v>
       </c>
       <c r="G144">
-        <v>364.2407747008951</v>
+        <v>4841602.689713593</v>
       </c>
       <c r="H144">
-        <v>1500.341314475712</v>
+        <v>3986223.413450377</v>
       </c>
       <c r="I144">
-        <v>160.2862633593152</v>
+        <v>1116545.523639483</v>
       </c>
       <c r="J144">
-        <v>244.9572721666809</v>
+        <v>4841472.784958568</v>
       </c>
       <c r="K144">
-        <v>1877.249317334863</v>
+        <v>3985760.054455259</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5488,28 +5491,28 @@
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>54.4592338137411</v>
+        <v>1116405.608278735</v>
       </c>
       <c r="G145">
-        <v>380.11591548808</v>
+        <v>4841619.202530261</v>
       </c>
       <c r="H145">
-        <v>1508.563477521839</v>
+        <v>3986233.563084024</v>
       </c>
       <c r="I145">
-        <v>222.0645345310941</v>
+        <v>1116616.615683773</v>
       </c>
       <c r="J145">
-        <v>197.0075459526632</v>
+        <v>4841424.13336061</v>
       </c>
       <c r="K145">
-        <v>1551.72123165884</v>
+        <v>3985518.498859593</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5523,28 +5526,28 @@
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>53.57412071626678</v>
+        <v>1116404.878154373</v>
       </c>
       <c r="G146">
-        <v>395.991056275265</v>
+        <v>4841635.715346931</v>
       </c>
       <c r="H146">
-        <v>1516.51654681585</v>
+        <v>3986243.380541943</v>
       </c>
       <c r="I146">
-        <v>285.3640387955114</v>
+        <v>1116689.458304251</v>
       </c>
       <c r="J146">
-        <v>149.0578197386455</v>
+        <v>4841375.481762652</v>
       </c>
       <c r="K146">
-        <v>1205.778340574902</v>
+        <v>3985261.794615631</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5558,28 +5561,28 @@
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>52.73079373834123</v>
+        <v>1116404.182499124</v>
       </c>
       <c r="G147">
-        <v>411.8661970624499</v>
+        <v>4841652.228163598</v>
       </c>
       <c r="H147">
-        <v>1524.21757931601</v>
+        <v>3986252.886879649</v>
       </c>
       <c r="I147">
-        <v>350.2222351179628</v>
+        <v>1116764.094607244</v>
       </c>
       <c r="J147">
-        <v>101.108093524628</v>
+        <v>4841326.830164695</v>
       </c>
       <c r="K147">
-        <v>839.4206440830494</v>
+        <v>3984989.94172337</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5593,28 +5596,28 @@
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>51.92606618635421</v>
+        <v>1116403.518684305</v>
       </c>
       <c r="G148">
-        <v>427.7413378496349</v>
+        <v>4841668.740980267</v>
       </c>
       <c r="H148">
-        <v>1531.682059901724</v>
+        <v>3986262.101212044</v>
       </c>
       <c r="I148">
-        <v>416.6775048564094</v>
+        <v>1116840.568760533</v>
       </c>
       <c r="J148">
-        <v>53.15836731061032</v>
+        <v>4841278.178566737</v>
       </c>
       <c r="K148">
-        <v>452.6481421832804</v>
+        <v>3984702.940182813</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5628,28 +5631,28 @@
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>51.15708144514355</v>
+        <v>1116402.884353511</v>
       </c>
       <c r="G149">
-        <v>443.6164786368199</v>
+        <v>4841685.253796935</v>
       </c>
       <c r="H149">
-        <v>1538.924088819606</v>
+        <v>3986271.04094481</v>
       </c>
       <c r="I149">
-        <v>484.7691744744377</v>
+        <v>1116918.926019493</v>
       </c>
       <c r="J149">
-        <v>5.208641096592621</v>
+        <v>4841229.526968779</v>
       </c>
       <c r="K149">
-        <v>45.46083487559617</v>
+        <v>3984400.78999396</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,28 +5666,28 @@
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>50.42127029364578</v>
+        <v>1116402.277387408</v>
       </c>
       <c r="G150">
-        <v>459.4916194240048</v>
+        <v>4841701.766613604</v>
       </c>
       <c r="H150">
-        <v>1545.956541998768</v>
+        <v>3986279.721972297</v>
       </c>
       <c r="I150">
-        <v>554.5375388136219</v>
+        <v>1116999.212753867</v>
       </c>
       <c r="J150">
-        <v>-42.74108511742485</v>
+        <v>4841180.875370821</v>
       </c>
       <c r="K150">
-        <v>-382.1412778400022</v>
+        <v>3984083.491156809</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5698,28 +5701,28 @@
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>49.71631477697979</v>
+        <v>1116401.695873928</v>
       </c>
       <c r="G151">
-        <v>475.3667602111897</v>
+        <v>4841718.279430272</v>
       </c>
       <c r="H151">
-        <v>1552.791208815337</v>
+        <v>3986288.158847594</v>
       </c>
       <c r="I151">
-        <v>626.0238849389407</v>
+        <v>1117081.476475213</v>
       </c>
       <c r="J151">
-        <v>-90.69081133144255</v>
+        <v>4841132.223772863</v>
       </c>
       <c r="K151">
-        <v>-830.1581959635172</v>
+        <v>3983751.043671361</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,28 +5736,28 @@
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>49.04011747735495</v>
+        <v>1116401.138082925</v>
       </c>
       <c r="G152">
-        <v>491.2419009983748</v>
+        <v>4841734.79224694</v>
       </c>
       <c r="H152">
-        <v>1559.438911008792</v>
+        <v>3986296.364929313</v>
       </c>
       <c r="I152">
-        <v>699.2705165713634</v>
+        <v>1117165.765865016</v>
       </c>
       <c r="J152">
-        <v>-138.6405375454603</v>
+        <v>4841083.572174905</v>
       </c>
       <c r="K152">
-        <v>-1298.589919494949</v>
+        <v>3983403.447537616</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5768,28 +5771,28 @@
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>48.3907752557481</v>
+        <v>1116400.602444512</v>
       </c>
       <c r="G153">
-        <v>507.1170417855596</v>
+        <v>4841751.305063608</v>
       </c>
       <c r="H153">
-        <v>1565.909605762328</v>
+        <v>3986304.352508838</v>
       </c>
       <c r="I153">
-        <v>774.3207791220689</v>
+        <v>1117252.130803497</v>
       </c>
       <c r="J153">
-        <v>-186.5902637594779</v>
+        <v>4841034.920576947</v>
       </c>
       <c r="K153">
-        <v>-1787.436448434295</v>
+        <v>3983040.702755574</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,28 +5806,28 @@
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>47.76655671558834</v>
+        <v>1116400.087530469</v>
       </c>
       <c r="G154">
-        <v>522.9921825727446</v>
+        <v>4841767.817880278</v>
       </c>
       <c r="H154">
-        <v>1572.212475412368</v>
+        <v>3986312.132921062</v>
       </c>
       <c r="I154">
-        <v>851.2190853431094</v>
+        <v>1117340.622399135</v>
       </c>
       <c r="J154">
-        <v>-234.5399899734952</v>
+        <v>4840986.26897899</v>
       </c>
       <c r="K154">
-        <v>-2296.697782781553</v>
+        <v>3982662.809325235</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5838,28 +5841,28 @@
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>47.165882780725</v>
+        <v>1116399.592038226</v>
       </c>
       <c r="G155">
-        <v>538.8673233599296</v>
+        <v>4841784.330696945</v>
       </c>
       <c r="H155">
-        <v>1578.356005815945</v>
+        <v>3986319.716641131</v>
       </c>
       <c r="I155">
-        <v>930.0109416096997</v>
+        <v>1117431.293018904</v>
       </c>
       <c r="J155">
-        <v>-282.4897161875129</v>
+        <v>4840937.617381032</v>
       </c>
       <c r="K155">
-        <v>-2826.373922536729</v>
+        <v>3982269.767246599</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5873,28 +5876,28 @@
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>46.58730989162184</v>
+        <v>1116399.114777</v>
       </c>
       <c r="G156">
-        <v>554.7424641471146</v>
+        <v>4841800.843513614</v>
       </c>
       <c r="H156">
-        <v>1584.348055054415</v>
+        <v>3986327.113369246</v>
       </c>
       <c r="I156">
-        <v>1010.742974849675</v>
+        <v>1117524.196319269</v>
       </c>
       <c r="J156">
-        <v>-330.4394424015306</v>
+        <v>4840888.965783074</v>
       </c>
       <c r="K156">
-        <v>-3376.464867699822</v>
+        <v>3981861.576519666</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5908,28 +5911,28 @@
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>46.02951541269483</v>
+        <v>1116398.654655758</v>
       </c>
       <c r="G157">
-        <v>570.6176049342995</v>
+        <v>4841817.356330282</v>
       </c>
       <c r="H157">
-        <v>1590.195913869119</v>
+        <v>3986334.332105272</v>
       </c>
       <c r="I157">
-        <v>1093.462960136077</v>
+        <v>1117619.387277937</v>
       </c>
       <c r="J157">
-        <v>-378.3891686155483</v>
+        <v>4840840.314185116</v>
       </c>
       <c r="K157">
-        <v>-3946.97061827083</v>
+        <v>3981438.237144436</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,28 +5946,28 @@
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>45.49128491502689</v>
+        <v>1116398.210672723</v>
       </c>
       <c r="G158">
-        <v>586.4927457214845</v>
+        <v>4841833.869146951</v>
       </c>
       <c r="H158">
-        <v>1595.906358994997</v>
+        <v>3986341.381214572</v>
       </c>
       <c r="I158">
-        <v>1178.219848959166</v>
+        <v>1117716.922226388</v>
       </c>
       <c r="J158">
-        <v>-426.338894829566</v>
+        <v>4840791.662587158</v>
       </c>
       <c r="K158">
-        <v>-4537.891174249753</v>
+        <v>3980999.749120909</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5978,28 +5981,28 @@
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>44.9715010561682</v>
+        <v>1116397.781906208</v>
       </c>
       <c r="G159">
-        <v>602.3678865086695</v>
+        <v>4841850.381963619</v>
       </c>
       <c r="H159">
-        <v>1601.485700370718</v>
+        <v>3986348.268486284</v>
       </c>
       <c r="I159">
-        <v>1265.063798194614</v>
+        <v>1117816.858883214</v>
       </c>
       <c r="J159">
-        <v>-474.2886210435832</v>
+        <v>4840743.0109892</v>
       </c>
       <c r="K159">
-        <v>-5149.226535636587</v>
+        <v>3980546.112449085</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,28 +6016,1883 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>44.46913382531297</v>
+        <v>1116397.367506562</v>
       </c>
       <c r="G160">
-        <v>618.2430272958543</v>
+        <v>4841866.894780288</v>
       </c>
       <c r="H160">
-        <v>1606.939823050083</v>
+        <v>3986355.001185059</v>
       </c>
       <c r="I160">
-        <v>1354.046199785017</v>
+        <v>1117919.256388274</v>
       </c>
       <c r="J160">
-        <v>-522.2383472576009</v>
+        <v>4840694.359391241</v>
       </c>
       <c r="K160">
-        <v>-5780.976702431341</v>
+        <v>3980077.327128964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G161">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H161">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I161">
+        <v>1114859.899276501</v>
+      </c>
+      <c r="J161">
+        <v>4843218.021564338</v>
+      </c>
+      <c r="K161">
+        <v>3984370.997229303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>34</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G162">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H162">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I162">
+        <v>1114889.513234232</v>
+      </c>
+      <c r="J162">
+        <v>4843169.370028871</v>
+      </c>
+      <c r="K162">
+        <v>3984674.793272827</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>34</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G163">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H163">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I163">
+        <v>1114919.856408428</v>
+      </c>
+      <c r="J163">
+        <v>4843120.718493404</v>
+      </c>
+      <c r="K163">
+        <v>3984963.440653069</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>34</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G164">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H164">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I164">
+        <v>1114950.946755373</v>
+      </c>
+      <c r="J164">
+        <v>4843072.066957938</v>
+      </c>
+      <c r="K164">
+        <v>3985236.939370031</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>34</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G165">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H165">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I165">
+        <v>1114982.802673509</v>
+      </c>
+      <c r="J165">
+        <v>4843023.41542247</v>
+      </c>
+      <c r="K165">
+        <v>3985495.289423711</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>34</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G166">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H166">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I166">
+        <v>1115015.443014323</v>
+      </c>
+      <c r="J166">
+        <v>4842974.763887004</v>
+      </c>
+      <c r="K166">
+        <v>3985738.49081411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G167">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H167">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I167">
+        <v>1115048.8870935</v>
+      </c>
+      <c r="J167">
+        <v>4842926.112351537</v>
+      </c>
+      <c r="K167">
+        <v>3985966.543541227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>34</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G168">
+        <v>4841121.184284711</v>
+      </c>
+      <c r="H168">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I168">
+        <v>1115083.154702359</v>
+      </c>
+      <c r="J168">
+        <v>4842877.46081607</v>
+      </c>
+      <c r="K168">
+        <v>3986179.447605064</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>34</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116577.071710972</v>
+      </c>
+      <c r="G169">
+        <v>4841137.697092396</v>
+      </c>
+      <c r="H169">
+        <v>3985225.856434655</v>
+      </c>
+      <c r="I169">
+        <v>1115118.266119561</v>
+      </c>
+      <c r="J169">
+        <v>4842828.809280603</v>
+      </c>
+      <c r="K169">
+        <v>3986377.203005619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>34</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116528.39120964</v>
+      </c>
+      <c r="G170">
+        <v>4841154.20990008</v>
+      </c>
+      <c r="H170">
+        <v>3985425.110717839</v>
+      </c>
+      <c r="I170">
+        <v>1115154.242123109</v>
+      </c>
+      <c r="J170">
+        <v>4842780.157745136</v>
+      </c>
+      <c r="K170">
+        <v>3986559.809742894</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>34</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116499.793857185</v>
+      </c>
+      <c r="G171">
+        <v>4841170.722707766</v>
+      </c>
+      <c r="H171">
+        <v>3985543.796759153</v>
+      </c>
+      <c r="I171">
+        <v>1115191.104002647</v>
+      </c>
+      <c r="J171">
+        <v>4842731.506209669</v>
+      </c>
+      <c r="K171">
+        <v>3986727.267816887</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>34</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116481.741110308</v>
+      </c>
+      <c r="G172">
+        <v>4841187.235515451</v>
+      </c>
+      <c r="H172">
+        <v>3985628.613651198</v>
+      </c>
+      <c r="I172">
+        <v>1115228.873572057</v>
+      </c>
+      <c r="J172">
+        <v>4842682.854674202</v>
+      </c>
+      <c r="K172">
+        <v>3986879.577227599</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>34</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116469.151197916</v>
+      </c>
+      <c r="G173">
+        <v>4841203.748323135</v>
+      </c>
+      <c r="H173">
+        <v>3985694.660519592</v>
+      </c>
+      <c r="I173">
+        <v>1115267.573182366</v>
+      </c>
+      <c r="J173">
+        <v>4842634.203138735</v>
+      </c>
+      <c r="K173">
+        <v>3987016.73797503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>34</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116459.758746247</v>
+      </c>
+      <c r="G174">
+        <v>4841220.26113082</v>
+      </c>
+      <c r="H174">
+        <v>3985748.75802787</v>
+      </c>
+      <c r="I174">
+        <v>1115307.225734976</v>
+      </c>
+      <c r="J174">
+        <v>4842585.551603269</v>
+      </c>
+      <c r="K174">
+        <v>3987138.75005918</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>34</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116452.415160659</v>
+      </c>
+      <c r="G175">
+        <v>4841236.773938505</v>
+      </c>
+      <c r="H175">
+        <v>3985794.574668454</v>
+      </c>
+      <c r="I175">
+        <v>1115347.854695214</v>
+      </c>
+      <c r="J175">
+        <v>4842536.900067801</v>
+      </c>
+      <c r="K175">
+        <v>3987245.613480048</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>34</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116446.473665214</v>
+      </c>
+      <c r="G176">
+        <v>4841253.28674619</v>
+      </c>
+      <c r="H176">
+        <v>3985834.312259707</v>
+      </c>
+      <c r="I176">
+        <v>1115389.484106221</v>
+      </c>
+      <c r="J176">
+        <v>4842488.248532334</v>
+      </c>
+      <c r="K176">
+        <v>3987337.328237636</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>34</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116441.540106921</v>
+      </c>
+      <c r="G177">
+        <v>4841269.799553875</v>
+      </c>
+      <c r="H177">
+        <v>3985869.396620601</v>
+      </c>
+      <c r="I177">
+        <v>1115432.138603174</v>
+      </c>
+      <c r="J177">
+        <v>4842439.596996868</v>
+      </c>
+      <c r="K177">
+        <v>3987413.894331942</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>34</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116437.359287472</v>
+      </c>
+      <c r="G178">
+        <v>4841286.312361559</v>
+      </c>
+      <c r="H178">
+        <v>3985900.804183588</v>
+      </c>
+      <c r="I178">
+        <v>1115475.843427874</v>
+      </c>
+      <c r="J178">
+        <v>4842390.945461401</v>
+      </c>
+      <c r="K178">
+        <v>3987475.311762967</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>34</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116433.757919399</v>
+      </c>
+      <c r="G179">
+        <v>4841302.825169245</v>
+      </c>
+      <c r="H179">
+        <v>3985929.23301632</v>
+      </c>
+      <c r="I179">
+        <v>1115520.624443675</v>
+      </c>
+      <c r="J179">
+        <v>4842342.293925934</v>
+      </c>
+      <c r="K179">
+        <v>3987521.580530711</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>34</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116430.613738983</v>
+      </c>
+      <c r="G180">
+        <v>4841319.33797693</v>
+      </c>
+      <c r="H180">
+        <v>3985955.199508956</v>
+      </c>
+      <c r="I180">
+        <v>1115566.508150792</v>
+      </c>
+      <c r="J180">
+        <v>4842293.642390466</v>
+      </c>
+      <c r="K180">
+        <v>3987552.700635174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>34</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116427.837724846</v>
+      </c>
+      <c r="G181">
+        <v>4841335.850784614</v>
+      </c>
+      <c r="H181">
+        <v>3985979.096416018</v>
+      </c>
+      <c r="I181">
+        <v>1115613.521701984</v>
+      </c>
+      <c r="J181">
+        <v>4842244.990855</v>
+      </c>
+      <c r="K181">
+        <v>3987568.672076356</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>34</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116425.363333185</v>
+      </c>
+      <c r="G182">
+        <v>4841352.363592299</v>
+      </c>
+      <c r="H182">
+        <v>3986001.229424117</v>
+      </c>
+      <c r="I182">
+        <v>1115661.692918622</v>
+      </c>
+      <c r="J182">
+        <v>4842196.339319534</v>
+      </c>
+      <c r="K182">
+        <v>3987569.494854256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>34</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116423.139701499</v>
+      </c>
+      <c r="G183">
+        <v>4841368.876399984</v>
+      </c>
+      <c r="H183">
+        <v>3986021.841126044</v>
+      </c>
+      <c r="I183">
+        <v>1115711.050307154</v>
+      </c>
+      <c r="J183">
+        <v>4842147.687784065</v>
+      </c>
+      <c r="K183">
+        <v>3987555.168968875</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>34</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116421.127202675</v>
+      </c>
+      <c r="G184">
+        <v>4841385.389207669</v>
+      </c>
+      <c r="H184">
+        <v>3986041.127272089</v>
+      </c>
+      <c r="I184">
+        <v>1115761.62307597</v>
+      </c>
+      <c r="J184">
+        <v>4842099.036248599</v>
+      </c>
+      <c r="K184">
+        <v>3987525.694420213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>34</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116419.294446718</v>
+      </c>
+      <c r="G185">
+        <v>4841401.902015354</v>
+      </c>
+      <c r="H185">
+        <v>3986059.248104026</v>
+      </c>
+      <c r="I185">
+        <v>1115813.441152693</v>
+      </c>
+      <c r="J185">
+        <v>4842050.384713132</v>
+      </c>
+      <c r="K185">
+        <v>3987481.07120827</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>34</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116417.616204746</v>
+      </c>
+      <c r="G186">
+        <v>4841418.414823038</v>
+      </c>
+      <c r="H186">
+        <v>3986076.336455804</v>
+      </c>
+      <c r="I186">
+        <v>1115866.535201882</v>
+      </c>
+      <c r="J186">
+        <v>4842001.733177665</v>
+      </c>
+      <c r="K186">
+        <v>3987421.299333046</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>34</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116416.071938016</v>
+      </c>
+      <c r="G187">
+        <v>4841434.927630723</v>
+      </c>
+      <c r="H187">
+        <v>3986092.503668298</v>
+      </c>
+      <c r="I187">
+        <v>1115920.936643188</v>
+      </c>
+      <c r="J187">
+        <v>4841953.081642198</v>
+      </c>
+      <c r="K187">
+        <v>3987346.378794541</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>34</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116414.644734247</v>
+      </c>
+      <c r="G188">
+        <v>4841451.440438408</v>
+      </c>
+      <c r="H188">
+        <v>3986107.84398986</v>
+      </c>
+      <c r="I188">
+        <v>1115976.677669937</v>
+      </c>
+      <c r="J188">
+        <v>4841904.430106731</v>
+      </c>
+      <c r="K188">
+        <v>3987256.309592755</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>34</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116413.320524441</v>
+      </c>
+      <c r="G189">
+        <v>4841467.953246092</v>
+      </c>
+      <c r="H189">
+        <v>3986122.437905285</v>
+      </c>
+      <c r="I189">
+        <v>1116033.79126819</v>
+      </c>
+      <c r="J189">
+        <v>4841855.778571265</v>
+      </c>
+      <c r="K189">
+        <v>3987151.091727687</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>34</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116412.08749683</v>
+      </c>
+      <c r="G190">
+        <v>4841484.466053777</v>
+      </c>
+      <c r="H190">
+        <v>3986136.354691808</v>
+      </c>
+      <c r="I190">
+        <v>1116092.311236255</v>
+      </c>
+      <c r="J190">
+        <v>4841807.127035797</v>
+      </c>
+      <c r="K190">
+        <v>3987030.725199338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>34</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116410.935651914</v>
+      </c>
+      <c r="G191">
+        <v>4841500.978861462</v>
+      </c>
+      <c r="H191">
+        <v>3986149.654408013</v>
+      </c>
+      <c r="I191">
+        <v>1116152.272204697</v>
+      </c>
+      <c r="J191">
+        <v>4841758.47550033</v>
+      </c>
+      <c r="K191">
+        <v>3986895.210007708</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>34</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116409.856460159</v>
+      </c>
+      <c r="G192">
+        <v>4841517.491669147</v>
+      </c>
+      <c r="H192">
+        <v>3986162.389460216</v>
+      </c>
+      <c r="I192">
+        <v>1116213.709656824</v>
+      </c>
+      <c r="J192">
+        <v>4841709.823964864</v>
+      </c>
+      <c r="K192">
+        <v>3986744.546152797</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116408.842595488</v>
+      </c>
+      <c r="G193">
+        <v>4841534.004476832</v>
+      </c>
+      <c r="H193">
+        <v>3986174.60584968</v>
+      </c>
+      <c r="I193">
+        <v>1116276.659949688</v>
+      </c>
+      <c r="J193">
+        <v>4841661.172429397</v>
+      </c>
+      <c r="K193">
+        <v>3986578.733634605</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>34</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116407.887725523</v>
+      </c>
+      <c r="G194">
+        <v>4841550.517284516</v>
+      </c>
+      <c r="H194">
+        <v>3986186.344175642</v>
+      </c>
+      <c r="I194">
+        <v>1116341.1603356</v>
+      </c>
+      <c r="J194">
+        <v>4841612.52089393</v>
+      </c>
+      <c r="K194">
+        <v>3986397.772453131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>34</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116406.98634482</v>
+      </c>
+      <c r="G195">
+        <v>4841567.030092201</v>
+      </c>
+      <c r="H195">
+        <v>3986197.640449376</v>
+      </c>
+      <c r="I195">
+        <v>1116407.248984176</v>
+      </c>
+      <c r="J195">
+        <v>4841563.869358462</v>
+      </c>
+      <c r="K195">
+        <v>3986201.662608377</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>34</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116406.133641078</v>
+      </c>
+      <c r="G196">
+        <v>4841583.542899887</v>
+      </c>
+      <c r="H196">
+        <v>3986208.526760462</v>
+      </c>
+      <c r="I196">
+        <v>1116474.965004923</v>
+      </c>
+      <c r="J196">
+        <v>4841515.217822996</v>
+      </c>
+      <c r="K196">
+        <v>3985990.404100341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116405.325386866</v>
+      </c>
+      <c r="G197">
+        <v>4841600.055707571</v>
+      </c>
+      <c r="H197">
+        <v>3986219.031826337</v>
+      </c>
+      <c r="I197">
+        <v>1116544.348470383</v>
+      </c>
+      <c r="J197">
+        <v>4841466.56628753</v>
+      </c>
+      <c r="K197">
+        <v>3985763.996929024</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116404.557851332</v>
+      </c>
+      <c r="G198">
+        <v>4841616.568515256</v>
+      </c>
+      <c r="H198">
+        <v>3986229.181448828</v>
+      </c>
+      <c r="I198">
+        <v>1116615.440439849</v>
+      </c>
+      <c r="J198">
+        <v>4841417.914752061</v>
+      </c>
+      <c r="K198">
+        <v>3985522.441094426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116403.827727656</v>
+      </c>
+      <c r="G199">
+        <v>4841633.081322941</v>
+      </c>
+      <c r="H199">
+        <v>3986238.998895957</v>
+      </c>
+      <c r="I199">
+        <v>1116688.282983659</v>
+      </c>
+      <c r="J199">
+        <v>4841369.263216595</v>
+      </c>
+      <c r="K199">
+        <v>3985265.736596547</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116403.132073062</v>
+      </c>
+      <c r="G200">
+        <v>4841649.594130625</v>
+      </c>
+      <c r="H200">
+        <v>3986248.505223212</v>
+      </c>
+      <c r="I200">
+        <v>1116762.919208097</v>
+      </c>
+      <c r="J200">
+        <v>4841320.611681128</v>
+      </c>
+      <c r="K200">
+        <v>3984993.883435387</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>34</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116402.468258868</v>
+      </c>
+      <c r="G201">
+        <v>4841666.106938311</v>
+      </c>
+      <c r="H201">
+        <v>3986257.71954548</v>
+      </c>
+      <c r="I201">
+        <v>1116839.393280898</v>
+      </c>
+      <c r="J201">
+        <v>4841271.960145662</v>
+      </c>
+      <c r="K201">
+        <v>3984706.881610945</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>34</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116401.83392867</v>
+      </c>
+      <c r="G202">
+        <v>4841682.619745996</v>
+      </c>
+      <c r="H202">
+        <v>3986266.659268418</v>
+      </c>
+      <c r="I202">
+        <v>1116917.750457386</v>
+      </c>
+      <c r="J202">
+        <v>4841223.308610194</v>
+      </c>
+      <c r="K202">
+        <v>3984404.731123223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>34</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116401.226963138</v>
+      </c>
+      <c r="G203">
+        <v>4841699.13255368</v>
+      </c>
+      <c r="H203">
+        <v>3986275.340286364</v>
+      </c>
+      <c r="I203">
+        <v>1116998.037107258</v>
+      </c>
+      <c r="J203">
+        <v>4841174.657074727</v>
+      </c>
+      <c r="K203">
+        <v>3984087.431972219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>34</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116400.645450206</v>
+      </c>
+      <c r="G204">
+        <v>4841715.645361365</v>
+      </c>
+      <c r="H204">
+        <v>3986283.777152387</v>
+      </c>
+      <c r="I204">
+        <v>1117080.30074202</v>
+      </c>
+      <c r="J204">
+        <v>4841126.005539261</v>
+      </c>
+      <c r="K204">
+        <v>3983754.984157934</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116400.087659728</v>
+      </c>
+      <c r="G205">
+        <v>4841732.15816905</v>
+      </c>
+      <c r="H205">
+        <v>3986291.983225086</v>
+      </c>
+      <c r="I205">
+        <v>1117164.590043108</v>
+      </c>
+      <c r="J205">
+        <v>4841077.354003793</v>
+      </c>
+      <c r="K205">
+        <v>3983407.387680368</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>34</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116399.552021818</v>
+      </c>
+      <c r="G206">
+        <v>4841748.670976735</v>
+      </c>
+      <c r="H206">
+        <v>3986299.970795831</v>
+      </c>
+      <c r="I206">
+        <v>1117250.95489069</v>
+      </c>
+      <c r="J206">
+        <v>4841028.702468326</v>
+      </c>
+      <c r="K206">
+        <v>3983044.64253952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116399.03710826</v>
+      </c>
+      <c r="G207">
+        <v>4841765.18378442</v>
+      </c>
+      <c r="H207">
+        <v>3986307.751199503</v>
+      </c>
+      <c r="I207">
+        <v>1117339.44639319</v>
+      </c>
+      <c r="J207">
+        <v>4840980.05093286</v>
+      </c>
+      <c r="K207">
+        <v>3982666.748735392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>34</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116398.541616483</v>
+      </c>
+      <c r="G208">
+        <v>4841781.696592104</v>
+      </c>
+      <c r="H208">
+        <v>3986315.334911236</v>
+      </c>
+      <c r="I208">
+        <v>1117430.116917528</v>
+      </c>
+      <c r="J208">
+        <v>4840931.399397393</v>
+      </c>
+      <c r="K208">
+        <v>3982273.706267982</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>34</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116398.064355707</v>
+      </c>
+      <c r="G209">
+        <v>4841798.20939979</v>
+      </c>
+      <c r="H209">
+        <v>3986322.731631221</v>
+      </c>
+      <c r="I209">
+        <v>1117523.020120112</v>
+      </c>
+      <c r="J209">
+        <v>4840882.747861926</v>
+      </c>
+      <c r="K209">
+        <v>3981865.515137292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>34</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116397.604234897</v>
+      </c>
+      <c r="G210">
+        <v>4841814.722207475</v>
+      </c>
+      <c r="H210">
+        <v>3986329.950359312</v>
+      </c>
+      <c r="I210">
+        <v>1117618.210978591</v>
+      </c>
+      <c r="J210">
+        <v>4840834.096326458</v>
+      </c>
+      <c r="K210">
+        <v>3981442.17534332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>34</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116397.16025228</v>
+      </c>
+      <c r="G211">
+        <v>4841831.235015159</v>
+      </c>
+      <c r="H211">
+        <v>3986336.999460863</v>
+      </c>
+      <c r="I211">
+        <v>1117715.745824386</v>
+      </c>
+      <c r="J211">
+        <v>4840785.444790992</v>
+      </c>
+      <c r="K211">
+        <v>3981003.686886067</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>34</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116396.731486168</v>
+      </c>
+      <c r="G212">
+        <v>4841847.747822843</v>
+      </c>
+      <c r="H212">
+        <v>3986343.886725005</v>
+      </c>
+      <c r="I212">
+        <v>1117815.682376028</v>
+      </c>
+      <c r="J212">
+        <v>4840736.793255526</v>
+      </c>
+      <c r="K212">
+        <v>3980550.049765532</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>34</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116396.317086912</v>
+      </c>
+      <c r="G213">
+        <v>4841864.260630529</v>
+      </c>
+      <c r="H213">
+        <v>3986350.619416379</v>
+      </c>
+      <c r="I213">
+        <v>1117918.079773315</v>
+      </c>
+      <c r="J213">
+        <v>4840688.141720057</v>
+      </c>
+      <c r="K213">
+        <v>3980081.263981717</v>
       </c>
     </row>
   </sheetData>
